--- a/test/1. 各院彙整資料/文學院.xlsx
+++ b/test/1. 各院彙整資料/文學院.xlsx
@@ -8,13 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DFE25FA-994D-44B5-920D-9852703FCC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCE1BFE-406F-410C-9C67-FEE4E1CEB8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{55C61296-44EC-4520-8617-7645E872D720}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{49C0C159-651D-44A8-8CB6-6F403BB42B38}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="小結" sheetId="1" r:id="rId1"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="5" r:id="rId2"/>
+    <sheet name="1.1.1.2 學士班個人申請入學錄取率" sheetId="6" r:id="rId3"/>
+    <sheet name="1.1.1.3 碩士班招生錄取率" sheetId="7" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.1.2 學士班個人申請入學錄取率'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.1.1.3 碩士班招生錄取率'!$A$1:$G$14</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,9 +44,363 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
+  <si>
+    <t>文學院</t>
+  </si>
+  <si>
+    <t>中文系</t>
+  </si>
+  <si>
+    <t>歷史系</t>
+  </si>
+  <si>
+    <t>哲學系</t>
+  </si>
+  <si>
+    <t>圖檔所</t>
+  </si>
+  <si>
+    <t>宗教所</t>
+  </si>
+  <si>
+    <t>台史所</t>
+  </si>
+  <si>
+    <t>台文所</t>
+  </si>
+  <si>
+    <t>華文碩</t>
+  </si>
+  <si>
+    <t>華文博</t>
+  </si>
+  <si>
+    <t>國教碩</t>
+  </si>
+  <si>
+    <t>圖資碩</t>
+  </si>
+  <si>
+    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.1.2 學士班個人申請入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.1.3 碩士班招生錄取率</t>
+  </si>
+  <si>
+    <t>1.1.1.4 博士班招生錄取率</t>
+  </si>
+  <si>
+    <t>1.1.2.1 學士班註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.2 碩士班註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.3 博士班註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.4 學士班新生註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.5 碩士班新生註冊率</t>
+  </si>
+  <si>
+    <t>1.1.2.6 博士班新生註冊率</t>
+  </si>
+  <si>
+    <t>1.1.3.1 碩士班招收本系畢業生比率</t>
+  </si>
+  <si>
+    <t>1.1.3.2 碩士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.1.3.3 博士班招收本系所畢業生比率</t>
+  </si>
+  <si>
+    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.2.1.1 本國籍學士班新生就學穩定率</t>
+  </si>
+  <si>
+    <t>1.2.2.1 學士班至外系修讀輔系比率</t>
+  </si>
+  <si>
+    <t>1.2.2.2 學士班至外系修讀雙主修比率</t>
+  </si>
+  <si>
+    <t>1.2.2.3 學士班開放外系修讀輔系比率</t>
+  </si>
+  <si>
+    <t>1.2.2.4 學士班開放外系修讀雙主修比率</t>
+  </si>
+  <si>
+    <t>1.2.2.5 學士班每學年修畢輔系比率</t>
+  </si>
+  <si>
+    <t>1.2.2.6 學士班每學年修畢雙主修比率</t>
+  </si>
+  <si>
+    <t>1.3.1.1 學士班獲國科會大專學生補助比率</t>
+  </si>
+  <si>
+    <t>1.3.1.2 博士班獲國科會赴國外研究補助比率</t>
+  </si>
+  <si>
+    <t>1.3.1.3 博士班獲國科會人社博士論文獎比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.4.1.2 碩士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.4.1.3 博士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.4.1.4 學士班出國交換獲獎學金人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.5 碩士班出國交換獲獎學金人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.6 博士班出國交換獲獎學金人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.7 外籍學位生入學獎學金獲獎人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.8 陸生學位生入學獎學金獲獎人數比率</t>
+  </si>
+  <si>
+    <t>1.4.1.9 僑生學位生入學獎學金獲獎人數比率</t>
+  </si>
+  <si>
+    <t>1.5.1.1 學士班出國交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.2 碩博士班出國交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.3 學士班來校交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.4 碩博士班來校交換學生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.5 學士班外籍學位生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.6 學士班陸生學位生比率</t>
+  </si>
+  <si>
+    <t>1.5.1.7 學士班僑生學位生比率</t>
+  </si>
+  <si>
+    <t>1.6.1.1 學士班參與國內實習比率</t>
+  </si>
+  <si>
+    <t>1.6.1.2 學士班參與海外實習比率</t>
+  </si>
+  <si>
+    <t>1.7.1.1 學士班應屆畢業比率</t>
+  </si>
+  <si>
+    <t>1.7.1.2 碩士班應屆畢業比率</t>
+  </si>
+  <si>
+    <t>1.7.1.3 博士班應屆畢業比率</t>
+  </si>
+  <si>
+    <t>1.7.1.4 碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>1.7.1.5 博士班平均修業年限</t>
+  </si>
+  <si>
+    <t>1.8.1.1 學士班畢業一年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.2 學士班畢業三年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.3 碩士班畢業一年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.4 碩士班畢業三年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.5 博士班畢業一年後之就業率</t>
+  </si>
+  <si>
+    <t>1.8.1.6 博士班畢業三年後之就業率</t>
+  </si>
+  <si>
+    <t>2.1.1.1 平均學士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.1.1.2 平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.1.1.3 開設數位教學創新課程之情形</t>
+  </si>
+  <si>
+    <t>2.1.2.1 教學單位多元人學分數</t>
+  </si>
+  <si>
+    <t>2.2.1.1 平均每人中文期刊論文出版數</t>
+  </si>
+  <si>
+    <t>2.2.1.2 平均每人外文期刊論文出版數</t>
+  </si>
+  <si>
+    <t>2.2.1.3 平均每人中文專書出版數</t>
+  </si>
+  <si>
+    <t>2.2.1.4 平均每人中文會議論文發表數</t>
+  </si>
+  <si>
+    <t>2.2.1.5 平均每人外文會議論文發表數</t>
+  </si>
+  <si>
+    <t>2.2.1.6 平均每人獲國科會研究計畫補助件數</t>
+  </si>
+  <si>
+    <t>2.2.1.7 平均每人獲國科會研究計畫補助金額</t>
+  </si>
+  <si>
+    <t>2.2.1.8 平均每人獲非國科會研究計畫補助件數</t>
+  </si>
+  <si>
+    <t>2.2.1.9 平均每人獲非國科會研究計畫補助金額</t>
+  </si>
+  <si>
+    <t>2.2.1.10 平均每人獲高教深耕（競爭型）計畫補助件數</t>
+  </si>
+  <si>
+    <t>2.2.1.11 平均每人獲高教深耕（競爭型）計畫補助金額</t>
+  </si>
+  <si>
+    <t>2.2.2.1 校內學術獲獎比例</t>
+  </si>
+  <si>
+    <t>2.2.2.2 校外學術獲獎比例</t>
+  </si>
+  <si>
+    <t>2.3.1.1 各系所教師兼任本校一級學術行政主管及副主管人次</t>
+  </si>
+  <si>
+    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.1.1.1 各系所每學年生師比率</t>
+  </si>
+  <si>
+    <t>3.1.1.2 外籍師資比率</t>
+  </si>
+  <si>
+    <t>3.1.2.1 各系所每學年新進教師比率</t>
+  </si>
+  <si>
+    <t>3.1.2.2 各系所未來五年內退休教師比率</t>
+  </si>
+  <si>
+    <t>3.2.1.1 舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>3.2.1.2 學院執行高教深耕（國際性）計畫之執行率</t>
+  </si>
+  <si>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 文學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>100 文學院</t>
+  </si>
+  <si>
+    <t>101 中國文學系</t>
+  </si>
+  <si>
+    <t>103 歷史學系</t>
+  </si>
+  <si>
+    <t>104 哲學系</t>
+  </si>
+  <si>
+    <t>155 圖書資訊與檔案學研究所</t>
+  </si>
+  <si>
+    <t>156 宗教研究所</t>
+  </si>
+  <si>
+    <t>158 台灣史研究所</t>
+  </si>
+  <si>
+    <t>159 台灣文學研究所</t>
+  </si>
+  <si>
+    <t>161 華語文教學碩士學位學程</t>
+  </si>
+  <si>
+    <t>160 華語文教學博士學位學程</t>
+  </si>
+  <si>
+    <t>912 國文教學碩士在職專班</t>
+  </si>
+  <si>
+    <t>913 圖書資訊學數位碩士在職專班</t>
+  </si>
+  <si>
+    <t>圖資碩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110學年度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109學年度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108學年度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00%;\-0.00%;&quot;—&quot;"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -49,16 +414,135 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="標楷體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -66,19 +550,76 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{3E275C67-52BA-40B4-B8DF-620C3771FC76}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{22366F77-4990-48D1-8760-6055475707E2}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{789CC9F0-856C-4E59-A60F-F56D54656529}"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -91,6 +632,2518 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>108學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FFD-4C06-B457-F677A1F60BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4FFD-4C06-B457-F677A1F60BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4FFD-4C06-B457-F677A1F60BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-4FFD-4C06-B457-F677A1F60BC7}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4FFD-4C06-B457-F677A1F60BC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>108學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1EB-4581-BC97-28404E29FA10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1EB-4581-BC97-28404E29FA10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B1EB-4581-BC97-28404E29FA10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-B1EB-4581-BC97-28404E29FA10}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.2 學士班個人申請入學錄取率'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B1EB-4581-BC97-28404E29FA10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12681020904925544"/>
+          <c:y val="2.8135873625787174E-2"/>
+          <c:w val="0.84782663946162662"/>
+          <c:h val="0.66325034688867546"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>108學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A16A-464A-B7A6-6CBE1AA9644C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="86000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A16A-464A-B7A6-6CBE1AA9644C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>110學年度</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="58000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A16A-464A-B7A6-6CBE1AA9644C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>三年均值</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="13"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:ln w="3175">
+                        <a:noFill/>
+                      </a:ln>
+                      <a:solidFill>
+                        <a:sysClr val="windowText" lastClr="000000"/>
+                      </a:solidFill>
+                      <a:effectLst>
+                        <a:glow rad="50800">
+                          <a:schemeClr val="bg1">
+                            <a:alpha val="40000"/>
+                          </a:schemeClr>
+                        </a:glow>
+                      </a:effectLst>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="zh-TW"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-A16A-464A-B7A6-6CBE1AA9644C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:glow rad="50800">
+                        <a:schemeClr val="bg1">
+                          <a:alpha val="40000"/>
+                        </a:schemeClr>
+                      </a:glow>
+                    </a:effectLst>
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-TW"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                </c15:spPr>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$B$2:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>院均值</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>文學院</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1.1.1.3 碩士班招生錄取率'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%;\-0.00%;"—"</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A16A-464A-B7A6-6CBE1AA9644C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="292236680"/>
+        <c:axId val="292237072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="292236680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292237072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292237072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292236680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Franklin Gothic Demi" panose="020B0703020102020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="horz" anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="800" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+          <a:ea typeface="Microsoft YaHei" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7724775" y="828675"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1EAC64B-5689-495C-BF2A-9E022A5129FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7724775" y="828675"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502FCDBE-7833-4AD0-B9C9-15379177ABC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7724775" y="828675"/>
+    <xdr:ext cx="5587200" cy="3747600"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFACB3F0-3BB8-4959-8EEA-E37578799FDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="template"/>
+      <sheetName val="test1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v>三年均值</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>110學年度</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>109學年度</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>108學年度</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>院均值</v>
+          </cell>
+          <cell r="C2">
+            <v>0.06</v>
+          </cell>
+          <cell r="D2">
+            <v>0.06</v>
+          </cell>
+          <cell r="E2">
+            <v>0.03</v>
+          </cell>
+          <cell r="F2">
+            <v>1.4999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>測試二</v>
+          </cell>
+          <cell r="C3">
+            <v>0.05</v>
+          </cell>
+          <cell r="D3">
+            <v>0.04</v>
+          </cell>
+          <cell r="E3">
+            <v>0.01</v>
+          </cell>
+          <cell r="F3">
+            <v>3.5000000000000003E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,15 +3442,1363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93458A35-6CEE-439D-9CF9-8D907824CFC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEBFD55-DB6F-4D62-8D50-15C08CA8A789}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="60.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{CA3A99CC-F5D8-48E2-B3AA-259BBEC3BB78}"/>
+    <hyperlink ref="A3" location="'1.1.1.2 學士班個人申請入學錄取率'!A1" display="1.1.1.2 學士班個人申請入學錄取率" xr:uid="{16C28055-FFBB-46EF-9FAE-1A2ED2588F63}"/>
+    <hyperlink ref="A4" location="'1.1.1.3 碩士班招生錄取率'!A1" display="1.1.1.3 碩士班招生錄取率" xr:uid="{B71AFC3D-2F97-4DE1-BF94-B4457F637A70}"/>
+    <hyperlink ref="A5" location="'1.1.1.4 博士班招生錄取率'!A1" display="1.1.1.4 博士班招生錄取率" xr:uid="{CC6AFCE1-9944-470C-8ADE-144C78E3746B}"/>
+    <hyperlink ref="A6" location="'1.1.2.1 學士班註冊率'!A1" display="1.1.2.1 學士班註冊率" xr:uid="{23051BCC-D2CF-4908-B3F1-D529C8D90E5B}"/>
+    <hyperlink ref="A7" location="'1.1.2.2 碩士班註冊率'!A1" display="1.1.2.2 碩士班註冊率" xr:uid="{7EF51EFD-20A3-4BB0-997F-003ACE6C81E7}"/>
+    <hyperlink ref="A8" location="'1.1.2.3 博士班註冊率'!A1" display="1.1.2.3 博士班註冊率" xr:uid="{82A80E06-D8DA-4D4E-93FF-DB80A16423C4}"/>
+    <hyperlink ref="A9" location="'1.1.2.4 學士班新生註冊率'!A1" display="1.1.2.4 學士班新生註冊率" xr:uid="{D89A106D-E4FC-4721-B602-EADE0DB00590}"/>
+    <hyperlink ref="A10" location="'1.1.2.5 碩士班新生註冊率'!A1" display="1.1.2.5 碩士班新生註冊率" xr:uid="{90008F78-EBC4-4043-885D-8D073A1C627D}"/>
+    <hyperlink ref="A11" location="'1.1.2.6 博士班新生註冊率'!A1" display="1.1.2.6 博士班新生註冊率" xr:uid="{F8C6F53D-114F-4C85-B123-65067DB7F055}"/>
+    <hyperlink ref="A12" location="'1.1.3.1 碩士班招收本系畢業生比率'!A1" display="1.1.3.1 碩士班招收本系畢業生比率" xr:uid="{5AC25E4D-B586-4C95-9108-EB2ADEA4EF57}"/>
+    <hyperlink ref="A13" location="'1.1.3.2 碩士班招收國內重點大學畢業生比率'!A1" display="1.1.3.2 碩士班招收國內重點大學畢業生比率" xr:uid="{86EA612C-B0E9-43F7-B5C1-000E744E5C29}"/>
+    <hyperlink ref="A14" location="'1.1.3.3 博士班招收本系所畢業生比率'!A1" display="1.1.3.3 博士班招收本系所畢業生比率" xr:uid="{FFC9F7A5-7CA7-4396-9C7D-114680B0FDAC}"/>
+    <hyperlink ref="A15" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{E44577C6-9259-4DD2-83D3-35B4177BC2CA}"/>
+    <hyperlink ref="A16" location="'1.2.1.1 本國籍學士班新生就學穩定率'!A1" display="1.2.1.1 本國籍學士班新生就學穩定率" xr:uid="{54070844-AF13-48B9-A8ED-F5767D4C2CB1}"/>
+    <hyperlink ref="A17" location="'1.2.2.1 學士班至外系修讀輔系比率'!A1" display="1.2.2.1 學士班至外系修讀輔系比率" xr:uid="{B389F2BB-2A2A-452C-82AC-B0C62D66838E}"/>
+    <hyperlink ref="A18" location="'1.2.2.2 學士班至外系修讀雙主修比率'!A1" display="1.2.2.2 學士班至外系修讀雙主修比率" xr:uid="{43631086-9F97-457D-94BE-91F810A8DD96}"/>
+    <hyperlink ref="A19" location="'1.2.2.3 學士班開放外系修讀輔系比率'!A1" display="1.2.2.3 學士班開放外系修讀輔系比率" xr:uid="{3840586B-BF21-4307-8178-BABA2505B0E3}"/>
+    <hyperlink ref="A20" location="'1.2.2.4 學士班開放外系修讀雙主修比率'!A1" display="1.2.2.4 學士班開放外系修讀雙主修比率" xr:uid="{3BB4FF3D-326B-495F-9B23-324133DB253C}"/>
+    <hyperlink ref="A21" location="'1.2.2.5 學士班每學年修畢輔系比率'!A1" display="1.2.2.5 學士班每學年修畢輔系比率" xr:uid="{7482C07E-47C0-42A7-A9B7-61B42FDB1887}"/>
+    <hyperlink ref="A22" location="'1.2.2.6 學士班每學年修畢雙主修比率'!A1" display="1.2.2.6 學士班每學年修畢雙主修比率" xr:uid="{76442BAD-A843-4307-AAE4-61DE43DD784A}"/>
+    <hyperlink ref="A23" location="'1.3.1.1 學士班獲國科會大專學生補助比率'!A1" display="1.3.1.1 學士班獲國科會大專學生補助比率" xr:uid="{0859FCE7-4E14-4CA3-90F5-30D2B2AE1D7F}"/>
+    <hyperlink ref="A24" location="'1.3.1.2 博士班獲國科會赴國外研究補助比率'!A1" display="1.3.1.2 博士班獲國科會赴國外研究補助比率" xr:uid="{7F1DEE73-2F43-4BA1-BFAD-5BF2E51F0C08}"/>
+    <hyperlink ref="A25" location="'1.3.1.3 博士班獲國科會人社博士論文獎比率'!A1" display="1.3.1.3 博士班獲國科會人社博士論文獎比率" xr:uid="{1219580D-7856-4F50-8DCF-977160A410F3}"/>
+    <hyperlink ref="A26" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{DD90B606-5E54-4034-B7D8-4AEF961E9B30}"/>
+    <hyperlink ref="A27" location="'1.4.1.2 碩士班獲獎助學金平均金額'!A1" display="1.4.1.2 碩士班獲獎助學金平均金額" xr:uid="{3D4C66BD-26A2-4F3E-9C33-D027F02B05D6}"/>
+    <hyperlink ref="A28" location="'1.4.1.3 博士班獲獎助學金平均金額'!A1" display="1.4.1.3 博士班獲獎助學金平均金額" xr:uid="{967F1CC2-92DD-4B01-A827-745AE787E2C8}"/>
+    <hyperlink ref="A29" location="'1.4.1.4 學士班出國交換獲獎學金人數比率'!A1" display="1.4.1.4 學士班出國交換獲獎學金人數比率" xr:uid="{F445591F-A0AB-4C8C-A8BC-AF569566E855}"/>
+    <hyperlink ref="A30" location="'1.4.1.5 碩士班出國交換獲獎學金人數比率'!A1" display="1.4.1.5 碩士班出國交換獲獎學金人數比率" xr:uid="{829400A3-DB0E-4B7C-AF91-162A2AC9BAC3}"/>
+    <hyperlink ref="A31" location="'1.4.1.6 博士班出國交換獲獎學金人數比率'!A1" display="1.4.1.6 博士班出國交換獲獎學金人數比率" xr:uid="{CDD6ED7F-2A2A-4A81-92C4-94C1EAF3B19A}"/>
+    <hyperlink ref="A32" location="'1.4.1.7 外籍學位生入學獎學金獲獎人數比率'!A1" display="1.4.1.7 外籍學位生入學獎學金獲獎人數比率" xr:uid="{DCEC8377-160D-4322-A0FB-795B3DAD9F45}"/>
+    <hyperlink ref="A33" location="'1.4.1.8 陸生學位生入學獎學金獲獎人數比率'!A1" display="1.4.1.8 陸生學位生入學獎學金獲獎人數比率" xr:uid="{FFB005C9-8CA6-4F44-94B2-E0F3D4374AE9}"/>
+    <hyperlink ref="A34" location="'1.4.1.9 僑生學位生入學獎學金獲獎人數比率'!A1" display="1.4.1.9 僑生學位生入學獎學金獲獎人數比率" xr:uid="{5CEA799C-8E6E-4CAF-AD75-B6A281A4EDD6}"/>
+    <hyperlink ref="A35" location="'1.5.1.1 學士班出國交換學生比率'!A1" display="1.5.1.1 學士班出國交換學生比率" xr:uid="{55ED5742-44B3-493C-BA41-DFA568B58F1B}"/>
+    <hyperlink ref="A36" location="'1.5.1.2 碩博士班出國交換學生比率'!A1" display="1.5.1.2 碩博士班出國交換學生比率" xr:uid="{9EBE3F10-ABCE-4D6E-8145-B380911B92D4}"/>
+    <hyperlink ref="A37" location="'1.5.1.3 學士班來校交換學生比率'!A1" display="1.5.1.3 學士班來校交換學生比率" xr:uid="{3BC8F25B-875A-432B-83F4-6E39B62F06C9}"/>
+    <hyperlink ref="A38" location="'1.5.1.4 碩博士班來校交換學生比率'!A1" display="1.5.1.4 碩博士班來校交換學生比率" xr:uid="{7D897C75-E11A-44B6-890D-B7D8EC3316C9}"/>
+    <hyperlink ref="A39" location="'1.5.1.5 學士班外籍學位生比率'!A1" display="1.5.1.5 學士班外籍學位生比率" xr:uid="{7AC924C0-C691-446B-A596-AE9F35685A99}"/>
+    <hyperlink ref="A40" location="'1.5.1.6 學士班陸生學位生比率'!A1" display="1.5.1.6 學士班陸生學位生比率" xr:uid="{89C90824-61CF-4152-BBC0-90C08C394F0F}"/>
+    <hyperlink ref="A41" location="'1.5.1.7 學士班僑生學位生比率'!A1" display="1.5.1.7 學士班僑生學位生比率" xr:uid="{D40AC40F-7972-4C70-BAC5-5E5DC89F8B55}"/>
+    <hyperlink ref="A42" location="'1.6.1.1 學士班參與國內實習比率'!A1" display="1.6.1.1 學士班參與國內實習比率" xr:uid="{F5E31D3F-7A39-4E46-B06A-D403AFE34A34}"/>
+    <hyperlink ref="A43" location="'1.6.1.2 學士班參與海外實習比率'!A1" display="1.6.1.2 學士班參與海外實習比率" xr:uid="{703A7AC2-3402-4002-8264-E65724105612}"/>
+    <hyperlink ref="A44" location="'1.7.1.1 學士班應屆畢業比率'!A1" display="1.7.1.1 學士班應屆畢業比率" xr:uid="{ED0F1CB8-B7E9-43A4-909B-FEC0EA33AF80}"/>
+    <hyperlink ref="A45" location="'1.7.1.2 碩士班應屆畢業比率'!A1" display="1.7.1.2 碩士班應屆畢業比率" xr:uid="{CA0AD8E9-5A7F-41F7-8132-9BDCC9EB3036}"/>
+    <hyperlink ref="A46" location="'1.7.1.3 博士班應屆畢業比率'!A1" display="1.7.1.3 博士班應屆畢業比率" xr:uid="{3CB04850-9578-4E28-BA6C-E651DEF85FCD}"/>
+    <hyperlink ref="A47" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{E76AFD24-C92A-49C1-9B2D-92E93CB968A9}"/>
+    <hyperlink ref="A48" location="'1.7.1.5 博士班平均修業年限'!A1" display="1.7.1.5 博士班平均修業年限" xr:uid="{2ABB8C45-9BED-4544-91FB-29D6F508AAB0}"/>
+    <hyperlink ref="A49" location="'1.8.1.1 學士班畢業一年後之就業率'!A1" display="1.8.1.1 學士班畢業一年後之就業率" xr:uid="{090376DE-B979-414A-AE48-145530149DF9}"/>
+    <hyperlink ref="A50" location="'1.8.1.2 學士班畢業三年後之就業率'!A1" display="1.8.1.2 學士班畢業三年後之就業率" xr:uid="{38E26A5D-1669-42C5-ABCB-8D3DC1D2BDE6}"/>
+    <hyperlink ref="A51" location="'1.8.1.3 碩士班畢業一年後之就業率'!A1" display="1.8.1.3 碩士班畢業一年後之就業率" xr:uid="{72C080BE-873D-4C44-A407-9F289177BA89}"/>
+    <hyperlink ref="A52" location="'1.8.1.4 碩士班畢業三年後之就業率'!A1" display="1.8.1.4 碩士班畢業三年後之就業率" xr:uid="{62E295BB-FAA2-4C84-8658-539A4ECB6595}"/>
+    <hyperlink ref="A53" location="'1.8.1.5 博士班畢業一年後之就業率'!A1" display="1.8.1.5 博士班畢業一年後之就業率" xr:uid="{94D627EA-4643-4AC3-A926-723F7CB2F40D}"/>
+    <hyperlink ref="A54" location="'1.8.1.6 博士班畢業三年後之就業率'!A1" display="1.8.1.6 博士班畢業三年後之就業率" xr:uid="{E0322424-6700-4746-AA35-051D2DEEE104}"/>
+    <hyperlink ref="A55" location="'2.1.1.1 平均學士班修課學生人數'!A1" display="2.1.1.1 平均學士班修課學生人數" xr:uid="{A1F3F154-67FA-47E7-95F6-67BB74190285}"/>
+    <hyperlink ref="A56" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{144545A4-AD96-49C8-8A8B-00988B0664E9}"/>
+    <hyperlink ref="A57" location="'2.1.1.3 開設數位教學創新課程之情形'!A1" display="2.1.1.3 開設數位教學創新課程之情形" xr:uid="{C1C1FF46-638E-4A73-900B-E4338D4DC15F}"/>
+    <hyperlink ref="A58" location="'2.1.2.1 教學單位多元人學分數'!A1" display="2.1.2.1 教學單位多元人學分數" xr:uid="{0A3942F8-65A9-43E9-B871-5C119BE88318}"/>
+    <hyperlink ref="A59" location="'2.2.1.1 平均每人中文期刊論文出版數'!A1" display="2.2.1.1 平均每人中文期刊論文出版數" xr:uid="{86B4F4B6-AC72-41A4-B88E-F9B794BB928F}"/>
+    <hyperlink ref="A60" location="'2.2.1.2 平均每人外文期刊論文出版數'!A1" display="2.2.1.2 平均每人外文期刊論文出版數" xr:uid="{948BA489-5146-4B7D-B554-3BC4309132BB}"/>
+    <hyperlink ref="A61" location="'2.2.1.3 平均每人中文專書出版數'!A1" display="2.2.1.3 平均每人中文專書出版數" xr:uid="{873E98B1-6E14-4535-A155-FF51227DABD6}"/>
+    <hyperlink ref="A62" location="'2.2.1.4 平均每人中文會議論文發表數'!A1" display="2.2.1.4 平均每人中文會議論文發表數" xr:uid="{674AABC5-2877-411B-977D-0A30C49565C4}"/>
+    <hyperlink ref="A63" location="'2.2.1.5 平均每人外文會議論文發表數'!A1" display="2.2.1.5 平均每人外文會議論文發表數" xr:uid="{3B4A0A9F-C532-4819-9628-DA6A5A8C2FA8}"/>
+    <hyperlink ref="A64" location="'2.2.1.6 平均每人獲國科會研究計畫補助件數'!A1" display="2.2.1.6 平均每人獲國科會研究計畫補助件數" xr:uid="{DF2F8F08-767D-4965-89C1-D3F6A5A84CF3}"/>
+    <hyperlink ref="A65" location="'2.2.1.7 平均每人獲國科會研究計畫補助金額'!A1" display="2.2.1.7 平均每人獲國科會研究計畫補助金額" xr:uid="{4B16E10B-F599-4254-8E9B-763F2C44BAA4}"/>
+    <hyperlink ref="A66" location="'2.2.1.8 平均每人獲非國科會研究計畫補助件數'!A1" display="2.2.1.8 平均每人獲非國科會研究計畫補助件數" xr:uid="{4679E215-0E67-44EA-B3AA-267FC5B77B17}"/>
+    <hyperlink ref="A67" location="'2.2.1.9 平均每人獲非國科會研究計畫補助金額'!A1" display="2.2.1.9 平均每人獲非國科會研究計畫補助金額" xr:uid="{C000BE4F-811E-48C2-B080-003B9372906E}"/>
+    <hyperlink ref="A68" location="'2.2.1.10 平均每人獲高教深耕（競爭型）計畫補助件數'!A1" display="2.2.1.10 平均每人獲高教深耕（競爭型）計畫補助件數" xr:uid="{D6835335-2D4A-4DC0-B523-8D99D22D4541}"/>
+    <hyperlink ref="A69" location="'2.2.1.11 平均每人獲高教深耕（競爭型）計畫補助金額'!A1" display="2.2.1.11 平均每人獲高教深耕（競爭型）計畫補助金額" xr:uid="{2214E9C0-229F-4F84-B8D3-3EE7BE067B9C}"/>
+    <hyperlink ref="A70" location="'2.2.2.1 校內學術獲獎比例'!A1" display="2.2.2.1 校內學術獲獎比例" xr:uid="{27536F96-A919-4047-9E84-F03BD2B484F1}"/>
+    <hyperlink ref="A71" location="'2.2.2.2 校外學術獲獎比例'!A1" display="2.2.2.2 校外學術獲獎比例" xr:uid="{57739A28-C7B1-493A-BA44-E29680A09EB3}"/>
+    <hyperlink ref="A72" location="'2.3.1.1 各系所教師兼任本校一級學術行政主管及副主管人次'!A1" display="2.3.1.1 各系所教師兼任本校一級學術行政主管及副主管人次" xr:uid="{15F4E79E-37ED-4298-84E7-FE6F00831E0B}"/>
+    <hyperlink ref="A73" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{F13B11EE-6323-424C-96D3-ECF82E625947}"/>
+    <hyperlink ref="A74" location="'3.1.1.1 各系所每學年生師比率'!A1" display="3.1.1.1 各系所每學年生師比率" xr:uid="{CBBF039A-41A2-4A40-96A6-03E7EDFBCE50}"/>
+    <hyperlink ref="A75" location="'3.1.1.2 外籍師資比率'!A1" display="3.1.1.2 外籍師資比率" xr:uid="{1DB1D7B1-308C-4493-BCCB-B93DD634C209}"/>
+    <hyperlink ref="A76" location="'3.1.2.1 各系所每學年新進教師比率'!A1" display="3.1.2.1 各系所每學年新進教師比率" xr:uid="{D7ABAE08-C253-49CE-9B94-F9FEACA52128}"/>
+    <hyperlink ref="A77" location="'3.1.2.2 各系所未來五年內退休教師比率'!A1" display="3.1.2.2 各系所未來五年內退休教師比率" xr:uid="{CAF5C96B-22DF-460E-991E-43A76441E3F1}"/>
+    <hyperlink ref="A78" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{440A2669-04DA-47CC-95C4-48DE1605237F}"/>
+    <hyperlink ref="A79" location="'3.2.1.2 學院執行高教深耕（國際性）計畫之執行率'!A1" display="3.2.1.2 學院執行高教深耕（國際性）計畫之執行率" xr:uid="{6B53F07F-B957-4703-A6FE-BF18F71991E8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED85CCDD-6650-42D6-87BE-F8683B076D05}">
+  <sheetPr codeName="工作表2"/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G14" si="0">IF(C3="","—",_xlfn.RANK.EQ(C3,$C$3:$C$14, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+      <sortCondition descending="1" ref="G1:G14"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1305C8F-FE7D-4E35-8BAD-E8D2492F3C90}">
+  <sheetPr codeName="工作表3"/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G14" si="0">IF(C3="","—",_xlfn.RANK.EQ(C3,$C$3:$C$14, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+      <sortCondition descending="1" ref="G1:G14"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A06C200-4195-4EAF-8B4A-B8CE055A6839}">
+  <sheetPr codeName="工作表4"/>
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G14" si="0">IF(C3="","—",_xlfn.RANK.EQ(C3,$C$3:$C$14, TRUE))</f>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>—</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+      <sortCondition descending="1" ref="G1:G14"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/test/1. 各院彙整資料/文學院.xlsx
+++ b/test/1. 各院彙整資料/文學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270917B1-D85E-4045-8DEE-59D842E5E737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006E56B2-51B4-4CB3-AA8B-31C3544B7425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D5490E19-D056-4E00-809C-D261DBA01929}"/>
+    <workbookView xWindow="3120" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{D5490E19-D056-4E00-809C-D261DBA01929}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$14</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="41">
   <si>
     <t>文學院</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>100 文學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>100 文學院</t>
   </si>
   <si>
     <t>101 中國文學系</t>
@@ -503,46 +500,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -550,14 +544,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -565,7 +559,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EC3B-418B-BB02-833514BED2BE}"/>
+              <c16:uniqueId val="{00000000-4A3A-4B30-9088-612F3031E9AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -600,46 +594,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -647,14 +638,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -662,7 +653,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EC3B-418B-BB02-833514BED2BE}"/>
+              <c16:uniqueId val="{00000001-4A3A-4B30-9088-612F3031E9AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -697,46 +688,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -744,14 +732,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -759,7 +747,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EC3B-418B-BB02-833514BED2BE}"/>
+              <c16:uniqueId val="{00000002-4A3A-4B30-9088-612F3031E9AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -870,7 +858,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EC3B-418B-BB02-833514BED2BE}"/>
+                  <c16:uniqueId val="{00000003-4A3A-4B30-9088-612F3031E9AC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -942,46 +930,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -989,14 +974,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$14</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1005,7 +990,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EC3B-418B-BB02-833514BED2BE}"/>
+              <c16:uniqueId val="{00000004-4A3A-4B30-9088-612F3031E9AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1286,46 +1271,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1333,14 +1315,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1348,7 +1330,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7F8-466A-9418-4BC7D5535AA8}"/>
+              <c16:uniqueId val="{00000000-03EB-453B-AF20-F9465A3CFB45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1383,46 +1365,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1430,14 +1409,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1445,7 +1424,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A7F8-466A-9418-4BC7D5535AA8}"/>
+              <c16:uniqueId val="{00000001-03EB-453B-AF20-F9465A3CFB45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1480,46 +1459,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1527,14 +1503,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1542,7 +1518,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A7F8-466A-9418-4BC7D5535AA8}"/>
+              <c16:uniqueId val="{00000002-03EB-453B-AF20-F9465A3CFB45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1653,7 +1629,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A7F8-466A-9418-4BC7D5535AA8}"/>
+                  <c16:uniqueId val="{00000003-03EB-453B-AF20-F9465A3CFB45}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1725,46 +1701,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1772,14 +1745,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$14</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1788,7 +1761,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A7F8-466A-9418-4BC7D5535AA8}"/>
+              <c16:uniqueId val="{00000004-03EB-453B-AF20-F9465A3CFB45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2069,46 +2042,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2116,14 +2086,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2131,7 +2101,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3EF9-4D73-B4A3-B9B18CC04BC8}"/>
+              <c16:uniqueId val="{00000000-21DC-4D0A-98F9-0AFD409A22F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2166,46 +2136,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2213,14 +2180,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2228,7 +2195,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3EF9-4D73-B4A3-B9B18CC04BC8}"/>
+              <c16:uniqueId val="{00000001-21DC-4D0A-98F9-0AFD409A22F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2263,46 +2230,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2310,14 +2274,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2325,7 +2289,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3EF9-4D73-B4A3-B9B18CC04BC8}"/>
+              <c16:uniqueId val="{00000002-21DC-4D0A-98F9-0AFD409A22F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2436,7 +2400,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-3EF9-4D73-B4A3-B9B18CC04BC8}"/>
+                  <c16:uniqueId val="{00000003-21DC-4D0A-98F9-0AFD409A22F0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2508,46 +2472,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2555,14 +2516,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$14</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2571,7 +2532,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3EF9-4D73-B4A3-B9B18CC04BC8}"/>
+              <c16:uniqueId val="{00000004-21DC-4D0A-98F9-0AFD409A22F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2852,46 +2813,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2899,14 +2857,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2914,7 +2872,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0FAE-4B64-8CE9-788071D8A67B}"/>
+              <c16:uniqueId val="{00000000-FF8C-4C7E-8522-51505ED4CFCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2949,46 +2907,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2996,14 +2951,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3011,7 +2966,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0FAE-4B64-8CE9-788071D8A67B}"/>
+              <c16:uniqueId val="{00000001-FF8C-4C7E-8522-51505ED4CFCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3046,46 +3001,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3093,14 +3045,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3108,7 +3060,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0FAE-4B64-8CE9-788071D8A67B}"/>
+              <c16:uniqueId val="{00000002-FF8C-4C7E-8522-51505ED4CFCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3219,7 +3171,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0FAE-4B64-8CE9-788071D8A67B}"/>
+                  <c16:uniqueId val="{00000003-FF8C-4C7E-8522-51505ED4CFCE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3291,46 +3243,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3338,14 +3287,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$14</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3354,7 +3303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0FAE-4B64-8CE9-788071D8A67B}"/>
+              <c16:uniqueId val="{00000004-FF8C-4C7E-8522-51505ED4CFCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3635,46 +3584,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3682,14 +3628,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3697,7 +3643,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E77-4B93-94B5-08D6ABB629AD}"/>
+              <c16:uniqueId val="{00000000-6279-4B80-AD27-EAEDF10EF7F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3732,46 +3678,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3779,14 +3722,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3794,7 +3737,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E77-4B93-94B5-08D6ABB629AD}"/>
+              <c16:uniqueId val="{00000001-6279-4B80-AD27-EAEDF10EF7F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3829,46 +3772,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3876,14 +3816,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3891,7 +3831,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E77-4B93-94B5-08D6ABB629AD}"/>
+              <c16:uniqueId val="{00000002-6279-4B80-AD27-EAEDF10EF7F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4002,7 +3942,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0E77-4B93-94B5-08D6ABB629AD}"/>
+                  <c16:uniqueId val="{00000003-6279-4B80-AD27-EAEDF10EF7F7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4074,46 +4014,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4121,14 +4058,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$14</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4137,7 +4074,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0E77-4B93-94B5-08D6ABB629AD}"/>
+              <c16:uniqueId val="{00000004-6279-4B80-AD27-EAEDF10EF7F7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4418,46 +4355,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4465,14 +4399,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4480,7 +4414,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3DE-4D55-9037-13925DF7CC58}"/>
+              <c16:uniqueId val="{00000000-440F-41E7-B900-4D9547565F47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4515,46 +4449,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4562,14 +4493,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4577,7 +4508,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C3DE-4D55-9037-13925DF7CC58}"/>
+              <c16:uniqueId val="{00000001-440F-41E7-B900-4D9547565F47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4612,46 +4543,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4659,14 +4587,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4674,7 +4602,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C3DE-4D55-9037-13925DF7CC58}"/>
+              <c16:uniqueId val="{00000002-440F-41E7-B900-4D9547565F47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4785,7 +4713,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C3DE-4D55-9037-13925DF7CC58}"/>
+                  <c16:uniqueId val="{00000003-440F-41E7-B900-4D9547565F47}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4857,46 +4785,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4904,14 +4829,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$14</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4920,7 +4845,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C3DE-4D55-9037-13925DF7CC58}"/>
+              <c16:uniqueId val="{00000004-440F-41E7-B900-4D9547565F47}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5201,46 +5126,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5248,14 +5170,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5263,7 +5185,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-22D4-453F-890C-CDF3CDBFAAB1}"/>
+              <c16:uniqueId val="{00000000-6664-4B44-9BFA-097242F973B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5298,46 +5220,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5345,14 +5264,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -5360,7 +5279,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-22D4-453F-890C-CDF3CDBFAAB1}"/>
+              <c16:uniqueId val="{00000001-6664-4B44-9BFA-097242F973B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5395,46 +5314,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5442,14 +5358,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -5457,7 +5373,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-22D4-453F-890C-CDF3CDBFAAB1}"/>
+              <c16:uniqueId val="{00000002-6664-4B44-9BFA-097242F973B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5568,7 +5484,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-22D4-453F-890C-CDF3CDBFAAB1}"/>
+                  <c16:uniqueId val="{00000003-6664-4B44-9BFA-097242F973B0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5640,46 +5556,43 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>文學院</c:v>
+                  <c:v>中文系</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>中文系</c:v>
+                  <c:v>歷史系</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>歷史系</c:v>
+                  <c:v>哲學系</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>哲學系</c:v>
+                  <c:v>圖檔所</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>圖檔所</c:v>
+                  <c:v>宗教所</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>宗教所</c:v>
+                  <c:v>台史所</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>台史所</c:v>
+                  <c:v>台文所</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>台文所</c:v>
+                  <c:v>華文碩</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>華文碩</c:v>
+                  <c:v>華文博</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>華文博</c:v>
+                  <c:v>國教碩</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5687,14 +5600,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$14</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="11">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -5703,7 +5616,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-22D4-453F-890C-CDF3CDBFAAB1}"/>
+              <c16:uniqueId val="{00000004-6664-4B44-9BFA-097242F973B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5932,7 +5845,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECD0A51-B824-421C-BE16-7EDAD5B4732D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8ECCE35-17DE-41B4-A6C4-6BC904E149F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5965,7 +5878,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9586E307-FA70-46F4-B439-7B3E2E4C559B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807C44DE-7727-488E-A854-110B9B2E5D6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5998,7 +5911,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BADC4A5-A987-4962-A317-2BECEB328268}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{768FDF94-C365-4990-AED6-C71F1D5D1EE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6031,7 +5944,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE1007D-5376-4870-B659-4884F15D1668}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1D3FAA-C007-48B9-95C2-7AA3D46B0ABE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6064,7 +5977,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0A5870-C170-42FE-8601-A2E515197E18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984553D9-8E47-41C4-BC19-E8DB14966FC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6097,7 +6010,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F85A91-89F8-4C6A-81AE-3E22D35630EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB9AD6B-8751-4021-9DB4-35C8906D1824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6130,7 +6043,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C365059E-5449-4A8F-9DED-8BF51B9C8C46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C443BADC-E6BF-4F2E-BEBD-F4FA4D303F6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6180,7 +6093,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -6197,7 +6110,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -6604,25 +6517,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{AB6F38F9-2129-4C7F-A9E7-4AB52EEA0EBF}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{E120480B-18C6-4952-A0B7-E207A47BB875}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{2B9D1B32-01B4-4460-9361-3AB80227A4AC}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{5F179AD2-3F26-4E36-87E7-4CC76463B109}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{E133D787-BA32-42BD-B084-5C8AB761C06C}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{0A145CF8-442E-462F-BE7A-0EADA5D2FC61}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{B7B544F0-6159-40EE-8725-293E63549065}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{782D52A2-60A2-45F4-BE1E-E02E4C138276}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{00F271C9-D4BD-4E7E-9349-10F042A69C2D}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{709429F3-84E7-40B2-970E-159119A1CC8B}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{A611189C-E3CD-4A36-B928-6F02523A1D05}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{8A225E4C-C7DC-4842-B955-31144304EE4F}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{5E88E125-8280-4672-BD29-6D40DC49BAE1}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{7BDA7453-2431-4BD5-AE2D-F2F627F258F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F828AE6B-00DE-4BF0-BC12-188F6B8D7C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A84AF1-F243-436B-9318-42A069F15A8A}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6677,16 +6590,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6699,7 +6610,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6712,7 +6623,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6725,7 +6636,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6738,7 +6649,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6751,7 +6662,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -6764,7 +6675,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -6777,7 +6688,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -6790,7 +6701,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -6803,7 +6714,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -6816,39 +6727,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="C13" s="10">
         <v>0.05</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D13" s="10">
         <v>0.04</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E13" s="10">
         <v>0.01</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F13" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6859,12 +6759,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA6FD1C-E6EF-4E2A-90EA-532901C417C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D74DF5-9954-4EE0-A08A-57F4B5682261}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6919,16 +6819,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6941,7 +6839,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6954,7 +6852,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6967,7 +6865,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6980,7 +6878,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -6993,7 +6891,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -7006,7 +6904,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -7019,7 +6917,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -7032,7 +6930,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -7045,7 +6943,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -7058,39 +6956,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="10">
+      <c r="C13" s="10">
         <v>0.05</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D13" s="10">
         <v>0.04</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E13" s="10">
         <v>0.01</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F13" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7101,12 +6988,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFCC5C7-E736-4A78-9A25-1FCA86BB43F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6046C64-0604-43BA-B79C-A4F2F8949A68}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7161,16 +7048,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7183,7 +7068,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -7196,7 +7081,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -7209,7 +7094,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -7222,7 +7107,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -7235,7 +7120,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -7248,7 +7133,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -7261,7 +7146,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -7274,7 +7159,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -7287,7 +7172,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
@@ -7300,39 +7185,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="C13" s="11">
         <v>0.05</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D13" s="11">
         <v>0.04</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E13" s="11">
         <v>0.01</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F13" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7343,12 +7217,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD15D404-AF14-443B-8A2C-295C65CF938D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC7F04-0D92-4459-8F7C-3066BDA4AF53}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7403,16 +7277,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7425,7 +7297,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7438,7 +7310,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7451,7 +7323,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7464,7 +7336,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7477,7 +7349,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7490,7 +7362,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7503,7 +7375,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7516,7 +7388,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -7529,7 +7401,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -7542,39 +7414,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="C13" s="12">
         <v>0.05</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D13" s="12">
         <v>0.04</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E13" s="12">
         <v>0.01</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7585,12 +7446,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAAE8EA-3522-4CC8-9A96-49C4B6E86033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545058C7-0324-4163-97E6-1970A5F3E801}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7645,16 +7506,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7667,7 +7526,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7680,7 +7539,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7693,7 +7552,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7706,7 +7565,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7719,7 +7578,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7732,7 +7591,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7745,7 +7604,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -7758,7 +7617,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -7771,7 +7630,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -7784,39 +7643,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="C13" s="12">
         <v>0.05</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D13" s="12">
         <v>0.04</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E13" s="12">
         <v>0.01</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7827,12 +7675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6D88BE-DEE8-4B29-B59B-B915F473E6D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBF30EC-C450-4167-846F-8F7D12947B3E}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7873,7 +7721,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -7887,16 +7735,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7909,7 +7755,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7922,7 +7768,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7935,7 +7781,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7948,7 +7794,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -7961,7 +7807,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -7974,7 +7820,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -7987,7 +7833,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -8000,7 +7846,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -8013,7 +7859,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8026,39 +7872,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="C13" s="12">
         <v>0.05</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D13" s="12">
         <v>0.04</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E13" s="12">
         <v>0.01</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8069,12 +7904,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C62A74-8339-4193-8D7D-F0EA3A0D58C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2B0591-3EC5-4B81-AE2C-F7E2EACA5FF7}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8115,7 +7950,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -8129,16 +7964,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -8151,7 +7984,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -8164,7 +7997,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -8177,7 +8010,7 @@
         <v>31</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -8190,7 +8023,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -8203,7 +8036,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -8216,7 +8049,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -8229,7 +8062,7 @@
         <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -8242,7 +8075,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -8255,7 +8088,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -8268,39 +8101,28 @@
         <v>38</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="12">
+      <c r="C13" s="12">
         <v>0.05</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D13" s="12">
         <v>0.04</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E13" s="12">
         <v>0.01</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F13" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G13" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G14" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
-      <sortCondition descending="1" ref="G1:G14"/>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/文學院.xlsx
+++ b/test/1. 各院彙整資料/文學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006E56B2-51B4-4CB3-AA8B-31C3544B7425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF276DF-2FDC-4BD4-A73B-CE0A8864FAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{D5490E19-D056-4E00-809C-D261DBA01929}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{D5490E19-D056-4E00-809C-D261DBA01929}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
     <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$13</definedName>
@@ -53,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="42">
   <si>
     <t>文學院</t>
   </si>
@@ -186,6 +183,9 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.1235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,10 +673,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.12670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,10 +797,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.1018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,10 +1069,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,10 +1440,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.1235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,10 +1564,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.12670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,10 +1688,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.1018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,10 +1960,40 @@
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,10 +2331,40 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.1235</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,10 +2455,40 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.03</c:v>
+                  <c:v>0.12670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2279,10 +2579,40 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.1018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,10 +2851,40 @@
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.06</c:v>
+                  <c:v>0.1162</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1106</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6066,72 +6426,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -6579,18 +6873,20 @@
         <v>26</v>
       </c>
       <c r="C2" s="10">
-        <v>0.06</v>
+        <v>0.1162</v>
       </c>
       <c r="D2" s="10">
-        <v>0.06</v>
+        <v>0.1018</v>
       </c>
       <c r="E2" s="10">
-        <v>0.03</v>
+        <v>0.12670000000000001</v>
       </c>
       <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>0.1235</v>
+      </c>
+      <c r="G2" s="9">
+        <v>998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -6599,11 +6895,21 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="10">
+        <v>0.1246</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.1207</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.1489</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6612,11 +6918,21 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10">
+        <v>0.108</v>
+      </c>
+      <c r="D4" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.1159</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.1429</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -6625,11 +6941,21 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="10">
+        <v>0.1106</v>
+      </c>
+      <c r="D5" s="10">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.1333</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -6638,11 +6964,21 @@
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -6651,11 +6987,21 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -6664,11 +7010,21 @@
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -6677,11 +7033,21 @@
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -6690,11 +7056,21 @@
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -6703,11 +7079,21 @@
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -6716,11 +7102,21 @@
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -6729,20 +7125,20 @@
       <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6808,18 +7204,20 @@
         <v>26</v>
       </c>
       <c r="C2" s="10">
-        <v>0.06</v>
+        <v>0.1162</v>
       </c>
       <c r="D2" s="10">
-        <v>0.06</v>
+        <v>0.1018</v>
       </c>
       <c r="E2" s="10">
-        <v>0.03</v>
+        <v>0.12670000000000001</v>
       </c>
       <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>0.1235</v>
+      </c>
+      <c r="G2" s="9">
+        <v>998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -6828,11 +7226,21 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="10">
+        <v>0.1246</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.1207</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.1489</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6841,11 +7249,21 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10">
+        <v>0.108</v>
+      </c>
+      <c r="D4" s="10">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.1159</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.1429</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -6854,11 +7272,21 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="10">
+        <v>0.1106</v>
+      </c>
+      <c r="D5" s="10">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.1333</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -6867,11 +7295,21 @@
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -6880,11 +7318,21 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -6893,11 +7341,21 @@
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -6906,11 +7364,21 @@
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -6919,11 +7387,21 @@
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -6932,11 +7410,21 @@
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -6945,11 +7433,21 @@
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -6958,20 +7456,20 @@
       <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6992,8 +7490,8 @@
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7037,18 +7535,20 @@
         <v>26</v>
       </c>
       <c r="C2" s="11">
-        <v>0.06</v>
+        <v>0.1162</v>
       </c>
       <c r="D2" s="11">
-        <v>0.06</v>
+        <v>0.1018</v>
       </c>
       <c r="E2" s="11">
-        <v>0.03</v>
+        <v>0.12670000000000001</v>
       </c>
       <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>0.1235</v>
+      </c>
+      <c r="G2" s="9">
+        <v>998</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -7057,11 +7557,21 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="11">
+        <v>0.1246</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.1207</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.1489</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -7070,11 +7580,21 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="11">
+        <v>0.108</v>
+      </c>
+      <c r="D4" s="11">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.1159</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.1429</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -7083,11 +7603,21 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="11">
+        <v>0.1106</v>
+      </c>
+      <c r="D5" s="11">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.1333</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -7096,11 +7626,21 @@
       <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
+      <c r="C6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -7109,11 +7649,21 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
+      <c r="C7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -7122,11 +7672,21 @@
       <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -7135,11 +7695,21 @@
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -7148,11 +7718,21 @@
       <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -7161,11 +7741,21 @@
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9"/>
+      <c r="C11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -7174,11 +7764,21 @@
       <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -7187,20 +7787,20 @@
       <c r="B13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -7908,8 +8508,8 @@
   <sheetPr codeName="工作表8"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/test/1. 各院彙整資料/文學院.xlsx
+++ b/test/1. 各院彙整資料/文學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF276DF-2FDC-4BD4-A73B-CE0A8864FAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1156E62-DEBF-487A-88B0-3464A19ECAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{D5490E19-D056-4E00-809C-D261DBA01929}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{D5490E19-D056-4E00-809C-D261DBA01929}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
@@ -50,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="42">
-  <si>
-    <t>文學院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="50">
   <si>
     <t>中文系</t>
   </si>
@@ -86,27 +83,6 @@
   </si>
   <si>
     <t>圖資碩</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -185,7 +161,55 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>文學院</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -502,42 +526,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -547,41 +538,8 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1235</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1429</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -589,7 +547,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A3A-4B30-9088-612F3031E9AC}"/>
+              <c16:uniqueId val="{00000000-6A7D-48B8-B86A-00746EBAF994}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -626,42 +584,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -671,41 +596,8 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.12670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1489</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10340000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -713,7 +605,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4A3A-4B30-9088-612F3031E9AC}"/>
+              <c16:uniqueId val="{00000001-6A7D-48B8-B86A-00746EBAF994}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -750,42 +642,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -795,41 +654,8 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.9500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -837,7 +663,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4A3A-4B30-9088-612F3031E9AC}"/>
+              <c16:uniqueId val="{00000002-6A7D-48B8-B86A-00746EBAF994}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -901,7 +727,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -948,7 +778,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4A3A-4B30-9088-612F3031E9AC}"/>
+                  <c16:uniqueId val="{00000003-6A7D-48B8-B86A-00746EBAF994}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -957,7 +787,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1022,42 +856,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1067,41 +868,8 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1162</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1246</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1110,7 +878,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4A3A-4B30-9088-612F3031E9AC}"/>
+              <c16:uniqueId val="{00000004-6A7D-48B8-B86A-00746EBAF994}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1393,42 +1161,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1438,41 +1173,8 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1235</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1429</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1480,7 +1182,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-03EB-453B-AF20-F9465A3CFB45}"/>
+              <c16:uniqueId val="{00000000-B77C-45D4-8DAD-316686EE9BAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1517,42 +1219,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1562,41 +1231,8 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.12670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1489</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10340000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1604,7 +1240,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-03EB-453B-AF20-F9465A3CFB45}"/>
+              <c16:uniqueId val="{00000001-B77C-45D4-8DAD-316686EE9BAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1641,42 +1277,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1686,41 +1289,8 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.9500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1728,7 +1298,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-03EB-453B-AF20-F9465A3CFB45}"/>
+              <c16:uniqueId val="{00000002-B77C-45D4-8DAD-316686EE9BAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1792,7 +1362,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1839,7 +1413,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-03EB-453B-AF20-F9465A3CFB45}"/>
+                  <c16:uniqueId val="{00000003-B77C-45D4-8DAD-316686EE9BAC}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1848,7 +1422,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1913,42 +1491,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1958,41 +1503,8 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1162</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1246</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2001,7 +1513,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-03EB-453B-AF20-F9465A3CFB45}"/>
+              <c16:uniqueId val="{00000004-B77C-45D4-8DAD-316686EE9BAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2284,42 +1796,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2329,41 +1808,8 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1235</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1429</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2371,7 +1817,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-21DC-4D0A-98F9-0AFD409A22F0}"/>
+              <c16:uniqueId val="{00000000-E29B-43AB-A309-B1E4BBAF0131}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2408,42 +1854,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2453,41 +1866,8 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.12670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1489</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10340000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2495,7 +1875,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-21DC-4D0A-98F9-0AFD409A22F0}"/>
+              <c16:uniqueId val="{00000001-E29B-43AB-A309-B1E4BBAF0131}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2532,42 +1912,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2577,41 +1924,8 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1018</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1207</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.9500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2619,7 +1933,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-21DC-4D0A-98F9-0AFD409A22F0}"/>
+              <c16:uniqueId val="{00000002-E29B-43AB-A309-B1E4BBAF0131}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2683,7 +1997,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2730,7 +2048,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-21DC-4D0A-98F9-0AFD409A22F0}"/>
+                  <c16:uniqueId val="{00000003-E29B-43AB-A309-B1E4BBAF0131}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2739,7 +2057,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2804,42 +2126,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2849,41 +2138,8 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.1162</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1246</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.108</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1106</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2892,7 +2148,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-21DC-4D0A-98F9-0AFD409A22F0}"/>
+              <c16:uniqueId val="{00000004-E29B-43AB-A309-B1E4BBAF0131}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3175,42 +2431,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3220,19 +2443,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FF8C-4C7E-8522-51505ED4CFCE}"/>
+              <c16:uniqueId val="{00000000-E51D-430E-A0E4-738862B212CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3269,42 +2489,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3314,19 +2501,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FF8C-4C7E-8522-51505ED4CFCE}"/>
+              <c16:uniqueId val="{00000001-E51D-430E-A0E4-738862B212CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3363,42 +2547,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3408,19 +2559,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FF8C-4C7E-8522-51505ED4CFCE}"/>
+              <c16:uniqueId val="{00000002-E51D-430E-A0E4-738862B212CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3484,7 +2632,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3531,7 +2683,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-FF8C-4C7E-8522-51505ED4CFCE}"/>
+                  <c16:uniqueId val="{00000003-E51D-430E-A0E4-738862B212CE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3540,7 +2692,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3605,42 +2761,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3650,12 +2773,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3663,7 +2783,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FF8C-4C7E-8522-51505ED4CFCE}"/>
+              <c16:uniqueId val="{00000004-E51D-430E-A0E4-738862B212CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3946,42 +3066,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3991,19 +3078,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6279-4B80-AD27-EAEDF10EF7F7}"/>
+              <c16:uniqueId val="{00000000-41C6-4A37-889E-1B12BF3F761A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4040,42 +3124,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4085,19 +3136,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6279-4B80-AD27-EAEDF10EF7F7}"/>
+              <c16:uniqueId val="{00000001-41C6-4A37-889E-1B12BF3F761A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4134,42 +3182,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4179,19 +3194,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6279-4B80-AD27-EAEDF10EF7F7}"/>
+              <c16:uniqueId val="{00000002-41C6-4A37-889E-1B12BF3F761A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4255,7 +3267,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4302,7 +3318,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6279-4B80-AD27-EAEDF10EF7F7}"/>
+                  <c16:uniqueId val="{00000003-41C6-4A37-889E-1B12BF3F761A}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4311,7 +3327,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4376,42 +3396,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4421,12 +3408,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4434,7 +3418,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6279-4B80-AD27-EAEDF10EF7F7}"/>
+              <c16:uniqueId val="{00000004-41C6-4A37-889E-1B12BF3F761A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4717,42 +3701,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4762,19 +3713,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-440F-41E7-B900-4D9547565F47}"/>
+              <c16:uniqueId val="{00000000-CC6C-4F88-A5D7-3ADB87A49706}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4811,42 +3759,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4856,19 +3771,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-440F-41E7-B900-4D9547565F47}"/>
+              <c16:uniqueId val="{00000001-CC6C-4F88-A5D7-3ADB87A49706}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4905,42 +3817,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4950,19 +3829,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-440F-41E7-B900-4D9547565F47}"/>
+              <c16:uniqueId val="{00000002-CC6C-4F88-A5D7-3ADB87A49706}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5026,7 +3902,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5073,7 +3953,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-440F-41E7-B900-4D9547565F47}"/>
+                  <c16:uniqueId val="{00000003-CC6C-4F88-A5D7-3ADB87A49706}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5082,7 +3962,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5147,42 +4031,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5192,12 +4043,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5205,7 +4053,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-440F-41E7-B900-4D9547565F47}"/>
+              <c16:uniqueId val="{00000004-CC6C-4F88-A5D7-3ADB87A49706}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5488,42 +4336,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5533,19 +4348,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6664-4B44-9BFA-097242F973B0}"/>
+              <c16:uniqueId val="{00000000-17D9-48FD-8BA7-58C2870449FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5582,42 +4394,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5627,19 +4406,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6664-4B44-9BFA-097242F973B0}"/>
+              <c16:uniqueId val="{00000001-17D9-48FD-8BA7-58C2870449FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5676,42 +4452,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5721,19 +4464,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6664-4B44-9BFA-097242F973B0}"/>
+              <c16:uniqueId val="{00000002-17D9-48FD-8BA7-58C2870449FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5797,7 +4537,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5844,7 +4588,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6664-4B44-9BFA-097242F973B0}"/>
+                  <c16:uniqueId val="{00000003-17D9-48FD-8BA7-58C2870449FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5853,7 +4597,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5918,42 +4666,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>中文系</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>歷史系</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>哲學系</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>圖檔所</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>宗教所</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>台史所</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>台文所</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>華文碩</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>華文博</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>國教碩</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>圖資碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5963,12 +4678,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5976,7 +4688,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6664-4B44-9BFA-097242F973B0}"/>
+              <c16:uniqueId val="{00000004-17D9-48FD-8BA7-58C2870449FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6205,7 +4917,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8ECCE35-17DE-41B4-A6C4-6BC904E149F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B945217-932D-400F-8CCE-AC68B4B9EF19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6238,7 +4950,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807C44DE-7727-488E-A854-110B9B2E5D6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B0FDFA-E7AC-44CE-B91E-0C1CB74755DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6271,7 +4983,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{768FDF94-C365-4990-AED6-C71F1D5D1EE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A866C0E8-13DE-4B9D-B724-3C1C3E29C6C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6304,7 +5016,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE1D3FAA-C007-48B9-95C2-7AA3D46B0ABE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722E0ED3-4F3C-4A4F-85AF-86D8BDCF6C51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6337,7 +5049,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{984553D9-8E47-41C4-BC19-E8DB14966FC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E12986-8502-40DE-AE89-3A9703D27A8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6370,7 +5082,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB9AD6B-8751-4021-9DB4-35C8906D1824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CB1D36-9CC3-42EF-AE13-E8EF51ACA3F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6403,7 +5115,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C443BADC-E6BF-4F2E-BEBD-F4FA4D303F6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBA90BE-D0F0-4E90-9D66-47CFE0FA31B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6721,115 +5433,195 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{BC24FF7B-5B0A-46BD-ACBE-675E3161E34C}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E27649-7F95-4230-8371-BA739DED2619}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="7.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{782D52A2-60A2-45F4-BE1E-E02E4C138276}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{00F271C9-D4BD-4E7E-9349-10F042A69C2D}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{709429F3-84E7-40B2-970E-159119A1CC8B}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{A611189C-E3CD-4A36-B928-6F02523A1D05}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{8A225E4C-C7DC-4842-B955-31144304EE4F}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{5E88E125-8280-4672-BD29-6D40DC49BAE1}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{7BDA7453-2431-4BD5-AE2D-F2F627F258F4}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{5B39DBE4-81EF-466E-B3EF-3C853B87799F}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{629E7BC5-55EF-405C-88EA-53A0E3067B24}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{D077DA7B-24D3-4F51-B5F6-EEBF80F1F48C}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{1F3870B7-95E7-4DEA-854A-EBE9CA3D7579}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{9BF28882-2781-423D-ADFC-29B42C78B9C0}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{1F5158C2-FE85-47EC-BB98-775072D05EB9}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{BD0A2DD8-0284-4547-9A05-F6522369F7B2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A84AF1-F243-436B-9318-42A069F15A8A}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814CC09A-A022-444E-B4D7-AC74B9E14852}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6842,311 +5634,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.1162</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.1018</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.12670000000000001</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.1235</v>
-      </c>
-      <c r="G2" s="9">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.1246</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.1207</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.1489</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.11020000000000001</v>
-      </c>
-      <c r="G3" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.108</v>
-      </c>
-      <c r="D4" s="10">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.1159</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.1429</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.1106</v>
-      </c>
-      <c r="D5" s="10">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.1333</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="C13" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7155,12 +5958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D74DF5-9954-4EE0-A08A-57F4B5682261}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B0C92B-40BA-491B-A18D-D8F565333151}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7173,311 +5976,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.1162</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.1018</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.12670000000000001</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.1235</v>
-      </c>
-      <c r="G2" s="9">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.1246</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.1207</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.1489</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.11020000000000001</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.108</v>
-      </c>
-      <c r="D4" s="10">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.1159</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.1429</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.1106</v>
-      </c>
-      <c r="D5" s="10">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.1333</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="C13" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7486,12 +6300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6046C64-0604-43BA-B79C-A4F2F8949A68}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C1EE95-10D7-4001-ABEE-B8987DB12431}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7504,311 +6318,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.1162</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.1018</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.12670000000000001</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.1235</v>
-      </c>
-      <c r="G2" s="9">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.1246</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.1207</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.1489</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.11020000000000001</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.108</v>
-      </c>
-      <c r="D4" s="11">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.1159</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.1429</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.1106</v>
-      </c>
-      <c r="D5" s="11">
-        <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.10340000000000001</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.1333</v>
-      </c>
-      <c r="G5" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="C13" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7817,12 +6642,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADC7F04-0D92-4459-8F7C-3066BDA4AF53}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F4C86-FF45-4ADE-A7D5-7758C1384BD3}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7835,209 +6660,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8046,12 +6984,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545058C7-0324-4163-97E6-1970A5F3E801}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC53C44D-0C19-44F8-9DCC-05B0C8F0A203}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8064,209 +7002,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8275,12 +7326,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBF30EC-C450-4167-846F-8F7D12947B3E}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2672733F-5382-4163-A5BE-5D9DFF10A097}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8293,209 +7344,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8504,12 +7668,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2B0591-3EC5-4B81-AE2C-F7E2EACA5FF7}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA186BA-AF6C-43B1-A888-AB21EB01C915}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8522,209 +7686,322 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
+      <c r="C13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
       <sortCondition descending="1" ref="G1:G13"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/文學院.xlsx
+++ b/test/1. 各院彙整資料/文學院.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1156E62-DEBF-487A-88B0-3464A19ECAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB131FE1-D0A6-47FF-B2FE-9E5EB9D012E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{D5490E19-D056-4E00-809C-D261DBA01929}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA93FE0B-5FF8-4EBE-8DE9-D34EAA168099}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="工作表1" sheetId="100" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
@@ -50,118 +51,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="60">
+  <si>
+    <t>100 文學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>文學院</t>
+  </si>
+  <si>
+    <t>101 中國文學系</t>
+  </si>
   <si>
     <t>中文系</t>
+  </si>
+  <si>
+    <t>103 歷史學系</t>
   </si>
   <si>
     <t>歷史系</t>
   </si>
   <si>
+    <t>104 哲學系</t>
+  </si>
+  <si>
     <t>哲學系</t>
+  </si>
+  <si>
+    <t>155 圖書資訊與檔案學研究所</t>
   </si>
   <si>
     <t>圖檔所</t>
   </si>
   <si>
+    <t>156 宗教研究所</t>
+  </si>
+  <si>
     <t>宗教所</t>
+  </si>
+  <si>
+    <t>158 台灣史研究所</t>
   </si>
   <si>
     <t>台史所</t>
   </si>
   <si>
+    <t>159 台灣文學研究所</t>
+  </si>
+  <si>
     <t>台文所</t>
+  </si>
+  <si>
+    <t>161 華語文教學碩士學位學程</t>
   </si>
   <si>
     <t>華文碩</t>
   </si>
   <si>
+    <t>160 華語文教學博士學位學程</t>
+  </si>
+  <si>
     <t>華文博</t>
   </si>
   <si>
-    <t>國教碩</t>
+    <t>912 國文教學碩士在職專班</t>
   </si>
   <si>
-    <t>圖資碩</t>
-  </si>
-  <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100 文學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>101 中國文學系</t>
-  </si>
-  <si>
-    <t>103 歷史學系</t>
-  </si>
-  <si>
-    <t>104 哲學系</t>
-  </si>
-  <si>
-    <t>155 圖書資訊與檔案學研究所</t>
-  </si>
-  <si>
-    <t>156 宗教研究所</t>
-  </si>
-  <si>
-    <t>158 台灣史研究所</t>
-  </si>
-  <si>
-    <t>159 台灣文學研究所</t>
-  </si>
-  <si>
-    <t>161 華語文教學碩士學位學程</t>
-  </si>
-  <si>
-    <t>160 華語文教學博士學位學程</t>
-  </si>
-  <si>
-    <t>912 國文教學碩士在職專班</t>
+    <t>國教碩</t>
   </si>
   <si>
     <t>913 圖書資訊學數位碩士在職專班</t>
   </si>
   <si>
     <t>圖資碩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>文學院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -206,21 +167,102 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>無資料。</t>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖資碩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為42,111，高於院三年均值者計有1個系，為中文系46,027。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為7.05，高於院三年均值者計有3個系，為圖檔所14.22、中文系10.26、台文所7.22。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為11.62%，低於院三年均值者計有2個系，為歷史系10.8%、哲學系11.06%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為30.85%，高於院三年均值者計有3個系，為華文博66.67%、台史所50%、中文系37.04%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為4.14，低於院三年均值者計有4個系，為圖檔所2.5、哲學系3.96、華文碩4.03、宗教所4.08。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為5.67，包含歷史系2.33、圖檔所2、中文系1.33。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總三年均值為5.33，包含中文系1.33、歷史系1.33、台史所1、哲學系0.67、台文所0.67、圖檔所0.33。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -403,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,15 +480,27 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{FE70D7D3-081C-4330-B917-A0E27EB19AC7}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{61082E6B-C458-43A6-81C2-7252C4D0EBFA}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{5AD4322D-4D65-4144-8926-EEAF28932A0A}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{943A9ED3-11CD-483B-A004-F7AFEB39A548}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{858DEFD4-1E15-48A1-B285-BC62B6C32006}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{23534247-5BB1-4E1B-AE29-6A59C8D0AB33}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,8 +580,17 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -537,17 +600,26 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A7D-48B8-B86A-00746EBAF994}"/>
+              <c16:uniqueId val="{00000000-1800-47B7-8689-B0CB07DE0EE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -584,8 +656,17 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -595,17 +676,26 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12670000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6A7D-48B8-B86A-00746EBAF994}"/>
+              <c16:uniqueId val="{00000001-1800-47B7-8689-B0CB07DE0EE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -642,8 +732,17 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -653,17 +752,26 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.9500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8799999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6A7D-48B8-B86A-00746EBAF994}"/>
+              <c16:uniqueId val="{00000002-1800-47B7-8689-B0CB07DE0EE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -778,7 +886,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6A7D-48B8-B86A-00746EBAF994}"/>
+                  <c16:uniqueId val="{00000003-1800-47B7-8689-B0CB07DE0EE6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -856,8 +964,17 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -867,10 +984,19 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1246</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,7 +1004,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6A7D-48B8-B86A-00746EBAF994}"/>
+              <c16:uniqueId val="{00000004-1800-47B7-8689-B0CB07DE0EE6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -978,7 +1104,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1161,8 +1287,32 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1172,17 +1322,41 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.3226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B77C-45D4-8DAD-316686EE9BAC}"/>
+              <c16:uniqueId val="{00000000-A775-4466-A1C8-3475A7E1FD73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1219,8 +1393,32 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1230,17 +1428,41 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="###%;###%;0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="###%;###%;0%">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="###%;###%;0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="###%;###%;0%">
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B77C-45D4-8DAD-316686EE9BAC}"/>
+              <c16:uniqueId val="{00000001-A775-4466-A1C8-3475A7E1FD73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1277,8 +1499,32 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1288,17 +1534,41 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="###%;###%;0%">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="###%;###%;0%">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34210000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B77C-45D4-8DAD-316686EE9BAC}"/>
+              <c16:uniqueId val="{00000002-A775-4466-A1C8-3475A7E1FD73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1413,7 +1683,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-B77C-45D4-8DAD-316686EE9BAC}"/>
+                  <c16:uniqueId val="{00000003-A775-4466-A1C8-3475A7E1FD73}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1491,8 +1761,32 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1502,10 +1796,34 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.37040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.1429</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="###.##%;\-###.##%;0%">
+                  <c:v>0.3085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,7 +1831,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B77C-45D4-8DAD-316686EE9BAC}"/>
+              <c16:uniqueId val="{00000004-A775-4466-A1C8-3475A7E1FD73}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1613,7 +1931,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1796,8 +2114,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1807,17 +2158,50 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>40890</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39706</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40703.440000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E29B-43AB-A309-B1E4BBAF0131}"/>
+              <c16:uniqueId val="{00000000-9689-4A65-8E6D-DBD142F46F57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1854,8 +2238,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1865,17 +2282,50 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>37774.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44679.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34653.410000000003</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38335.919999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E29B-43AB-A309-B1E4BBAF0131}"/>
+              <c16:uniqueId val="{00000001-9689-4A65-8E6D-DBD142F46F57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1912,8 +2362,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1923,17 +2406,50 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>55992.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33678.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25916.68</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="&quot;—&quot;">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46139.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E29B-43AB-A309-B1E4BBAF0131}"/>
+              <c16:uniqueId val="{00000002-9689-4A65-8E6D-DBD142F46F57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2048,7 +2564,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E29B-43AB-A309-B1E4BBAF0131}"/>
+                  <c16:uniqueId val="{00000003-9689-4A65-8E6D-DBD142F46F57}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2126,8 +2642,41 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>國教碩</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>圖資碩</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2137,10 +2686,43 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>46026.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39447.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>33142.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42110.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,7 +2730,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E29B-43AB-A309-B1E4BBAF0131}"/>
+              <c16:uniqueId val="{00000004-9689-4A65-8E6D-DBD142F46F57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2248,7 +2830,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2431,8 +3013,32 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2442,17 +3048,41 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,###;#,###;0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,###;#,###;0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E51D-430E-A0E4-738862B212CE}"/>
+              <c16:uniqueId val="{00000000-6DB6-4B1C-9805-67684C0946CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2489,8 +3119,32 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2500,17 +3154,41 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,###;#,###;0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.03</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E51D-430E-A0E4-738862B212CE}"/>
+              <c16:uniqueId val="{00000001-6DB6-4B1C-9805-67684C0946CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2547,8 +3225,32 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2558,17 +3260,41 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.42</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.57</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E51D-430E-A0E4-738862B212CE}"/>
+              <c16:uniqueId val="{00000002-6DB6-4B1C-9805-67684C0946CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2683,7 +3409,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E51D-430E-A0E4-738862B212CE}"/>
+                  <c16:uniqueId val="{00000003-6DB6-4B1C-9805-67684C0946CE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2761,8 +3487,32 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2772,10 +3522,34 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1399999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2783,7 +3557,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E51D-430E-A0E4-738862B212CE}"/>
+              <c16:uniqueId val="{00000004-6DB6-4B1C-9805-67684C0946CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2883,7 +3657,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3066,8 +3840,35 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3077,17 +3878,44 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-41C6-4A37-889E-1B12BF3F761A}"/>
+              <c16:uniqueId val="{00000000-9E61-45CD-8C19-7BD61A71E4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3124,8 +3952,35 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3135,17 +3990,44 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-41C6-4A37-889E-1B12BF3F761A}"/>
+              <c16:uniqueId val="{00000001-9E61-45CD-8C19-7BD61A71E4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3182,8 +4064,35 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3193,17 +4102,44 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>15.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-41C6-4A37-889E-1B12BF3F761A}"/>
+              <c16:uniqueId val="{00000002-9E61-45CD-8C19-7BD61A71E4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3318,7 +4254,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-41C6-4A37-889E-1B12BF3F761A}"/>
+                  <c16:uniqueId val="{00000003-9E61-45CD-8C19-7BD61A71E4FE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3396,8 +4332,35 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3407,10 +4370,37 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3418,7 +4408,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-41C6-4A37-889E-1B12BF3F761A}"/>
+              <c16:uniqueId val="{00000004-9E61-45CD-8C19-7BD61A71E4FE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3518,7 +4508,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3701,8 +4691,35 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3712,17 +4729,44 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC6C-4F88-A5D7-3ADB87A49706}"/>
+              <c16:uniqueId val="{00000000-2957-4297-B73A-84F96F7ED2BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3759,8 +4803,35 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3770,17 +4841,44 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="&quot;—&quot;">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CC6C-4F88-A5D7-3ADB87A49706}"/>
+              <c16:uniqueId val="{00000001-2957-4297-B73A-84F96F7ED2BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3817,8 +4915,35 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -3828,17 +4953,44 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CC6C-4F88-A5D7-3ADB87A49706}"/>
+              <c16:uniqueId val="{00000002-2957-4297-B73A-84F96F7ED2BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3953,7 +5105,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CC6C-4F88-A5D7-3ADB87A49706}"/>
+                  <c16:uniqueId val="{00000003-2957-4297-B73A-84F96F7ED2BD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4031,8 +5183,35 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>宗教所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>華文碩</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>華文博</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4042,10 +5221,37 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>2.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>5.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4053,7 +5259,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CC6C-4F88-A5D7-3ADB87A49706}"/>
+              <c16:uniqueId val="{00000004-2957-4297-B73A-84F96F7ED2BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4153,7 +5359,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4336,8 +5542,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4347,17 +5571,35 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-17D9-48FD-8BA7-58C2870449FD}"/>
+              <c16:uniqueId val="{00000000-1B55-4083-84ED-8A46EABBE7CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4394,8 +5636,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4405,17 +5665,35 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-17D9-48FD-8BA7-58C2870449FD}"/>
+              <c16:uniqueId val="{00000001-1B55-4083-84ED-8A46EABBE7CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4452,8 +5730,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4463,17 +5759,35 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="#,###;#,###;0">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-17D9-48FD-8BA7-58C2870449FD}"/>
+              <c16:uniqueId val="{00000002-1B55-4083-84ED-8A46EABBE7CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4588,7 +5902,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-17D9-48FD-8BA7-58C2870449FD}"/>
+                  <c16:uniqueId val="{00000003-1B55-4083-84ED-8A46EABBE7CF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4666,8 +5980,26 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$13</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>中文系</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>歷史系</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>台史所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>哲學系</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>台文所</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>圖檔所</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>院加總</c:v>
                 </c:pt>
               </c:strCache>
@@ -4677,10 +6009,28 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$13</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,###;#,###;0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4688,7 +6038,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-17D9-48FD-8BA7-58C2870449FD}"/>
+              <c16:uniqueId val="{00000004-1B55-4083-84ED-8A46EABBE7CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4788,7 +6138,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4917,7 +6267,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B945217-932D-400F-8CCE-AC68B4B9EF19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784CEDC9-1535-451F-AA7E-57946670344F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4950,7 +6300,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51B0FDFA-E7AC-44CE-B91E-0C1CB74755DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D10412-EC7C-42E4-B69B-6160E1C17CF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4983,7 +6333,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A866C0E8-13DE-4B9D-B724-3C1C3E29C6C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FACA9C1-AC74-4BE0-8877-D308F346F241}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5016,7 +6366,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722E0ED3-4F3C-4A4F-85AF-86D8BDCF6C51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400E1656-F57B-4F15-B471-A8F526CF433D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5049,7 +6399,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E12986-8502-40DE-AE89-3A9703D27A8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BA5E94-AC74-47AA-A34D-008A3818FEBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5082,7 +6432,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68CB1D36-9CC3-42EF-AE13-E8EF51ACA3F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E831C84-D588-4538-B6ED-BF3238518961}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5115,7 +6465,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBA90BE-D0F0-4E90-9D66-47CFE0FA31B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D25C34-6D0D-44EF-9393-61E39A04B550}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5442,7 +6792,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{BC24FF7B-5B0A-46BD-ACBE-675E3161E34C}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{0540B9C9-8098-40F1-9BB0-AF332B0BF894}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5454,11 +6804,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E27649-7F95-4230-8371-BA739DED2619}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:M9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A09233-239B-46AC-B0D8-BF15C5663918}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5470,484 +6822,838 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12">
+        <v>8</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12">
+        <v>7</v>
+      </c>
+      <c r="H4" s="12">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>4</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="12">
+        <v>4</v>
+      </c>
+      <c r="G5" s="12">
+        <v>4</v>
+      </c>
+      <c r="H5" s="12">
+        <v>4</v>
+      </c>
+      <c r="I5" s="12">
+        <v>4</v>
+      </c>
+      <c r="J5" s="12">
+        <v>4</v>
+      </c>
+      <c r="K5" s="12">
+        <v>4</v>
+      </c>
+      <c r="L5" s="12">
+        <v>4</v>
+      </c>
+      <c r="M5" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="12">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12">
+        <v>6</v>
+      </c>
+      <c r="I6" s="12">
+        <v>7</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12">
+        <v>5</v>
+      </c>
+      <c r="H7" s="12">
+        <v>4</v>
+      </c>
+      <c r="I7" s="12">
+        <v>5</v>
+      </c>
+      <c r="J7" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="K7" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="L7" s="12">
+        <v>4</v>
+      </c>
+      <c r="M7" s="12">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>8</v>
+      </c>
+      <c r="H8" s="12">
+        <v>7</v>
+      </c>
+      <c r="I8" s="12">
+        <v>3</v>
+      </c>
+      <c r="J8" s="12">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12">
+        <v>9</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4</v>
+      </c>
+      <c r="H9" s="12">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12">
+        <v>4</v>
+      </c>
+      <c r="J9" s="12">
+        <v>4</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3.39</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3.14</v>
+      </c>
+      <c r="E10" s="12">
+        <v>3.82</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="12">
+        <v>5.33</v>
+      </c>
+      <c r="H10" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="I10" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="K10" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4</v>
+      </c>
+      <c r="M10" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12">
+        <v>6</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="12">
+        <v>3</v>
+      </c>
+      <c r="I11" s="12">
+        <v>4</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3.13</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="E12" s="12">
+        <v>3.84</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.94</v>
+      </c>
+      <c r="G12" s="12">
+        <v>5.33</v>
+      </c>
+      <c r="H12" s="12">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I12" s="12">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="J12" s="12">
+        <v>3.9</v>
+      </c>
+      <c r="K12" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L12" s="12">
+        <v>4</v>
+      </c>
+      <c r="M12" s="12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{5B39DBE4-81EF-466E-B3EF-3C853B87799F}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{629E7BC5-55EF-405C-88EA-53A0E3067B24}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{D077DA7B-24D3-4F51-B5F6-EEBF80F1F48C}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{1F3870B7-95E7-4DEA-854A-EBE9CA3D7579}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{9BF28882-2781-423D-ADFC-29B42C78B9C0}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{1F5158C2-FE85-47EC-BB98-775072D05EB9}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{BD0A2DD8-0284-4547-9A05-F6522369F7B2}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{C12E7B15-2216-448A-80FB-CB1F28556432}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{8EE3EB4B-3B46-4555-88A3-D5AB2F454B72}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{0395A2F2-2594-4A33-A37E-5E585D38D9E4}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{1B57A082-7661-4E2B-9134-0400D89D6C3A}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{A78E6F02-60B7-4E8A-B74B-0A7E0871B862}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{ED05F740-EFF6-4CE5-91F5-D0C84910A18E}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{BF1A505C-FEB5-421C-B856-FA9107F98B21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814CC09A-A022-444E-B4D7-AC74B9E14852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC0D0FA-2E60-43EF-8FCB-31666EF8005D}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>48</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.108</v>
+      </c>
+      <c r="D2" s="13">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.1159</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.1429</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.1106</v>
+      </c>
+      <c r="D3" s="13">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.1333</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.1246</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.1207</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.1489</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.11020000000000001</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.1162</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.1018</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.12670000000000001</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.1235</v>
+      </c>
+      <c r="G5" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5958,338 +7664,338 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B0C92B-40BA-491B-A18D-D8F565333151}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1FB17C-85E1-491C-9B4E-86E285DA51EF}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>48</v>
+      <c r="C2" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0.5</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.1875</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.3085</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.3226</v>
+      </c>
+      <c r="G10" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6300,338 +8006,338 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C1EE95-10D7-4001-ABEE-B8987DB12431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7661A60-4F85-413F-8F76-1D90C3F389B7}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>46026.86</v>
+      </c>
+      <c r="D2" s="11">
+        <v>55992.11</v>
+      </c>
+      <c r="E2" s="11">
+        <v>37774.22</v>
+      </c>
+      <c r="F2" s="11">
+        <v>40890</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <v>39447.24</v>
+      </c>
+      <c r="D3" s="11">
+        <v>33678.47</v>
+      </c>
+      <c r="E3" s="11">
+        <v>44679.07</v>
+      </c>
+      <c r="F3" s="11">
+        <v>41162</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11">
+        <v>33142.01</v>
+      </c>
+      <c r="D4" s="11">
+        <v>25916.68</v>
+      </c>
+      <c r="E4" s="11">
+        <v>34653.410000000003</v>
+      </c>
+      <c r="F4" s="11">
+        <v>39706</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C10" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="11">
+        <v>42110.62</v>
+      </c>
+      <c r="D13" s="11">
+        <v>46139.62</v>
+      </c>
+      <c r="E13" s="11">
+        <v>38335.919999999998</v>
+      </c>
+      <c r="F13" s="11">
+        <v>40703.440000000002</v>
+      </c>
+      <c r="G13" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6642,338 +8348,339 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210F4C86-FF45-4ADE-A7D5-7758C1384BD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB7A4B9-E4F4-48D2-B8FC-204CBFA7F7EB}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="5" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2.46</v>
+      </c>
+      <c r="E2" s="15">
+        <v>2.52</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2.5</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3.96</v>
+      </c>
+      <c r="D3" s="16">
+        <v>5</v>
+      </c>
+      <c r="E3" s="15">
+        <v>3.71</v>
+      </c>
+      <c r="F3" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15">
+        <v>4.03</v>
+      </c>
+      <c r="D4" s="15">
+        <v>4.42</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3.93</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4.08</v>
+      </c>
+      <c r="D5" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4.25</v>
+      </c>
+      <c r="F5" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="15">
+        <v>4.59</v>
+      </c>
+      <c r="D6" s="15">
+        <v>4.83</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4.29</v>
+      </c>
+      <c r="F6" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>4.7</v>
+      </c>
+      <c r="D7" s="16">
+        <v>5</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F7" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D8" s="15">
+        <v>4.57</v>
+      </c>
+      <c r="E8" s="16">
+        <v>5</v>
+      </c>
+      <c r="F8" s="16">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15">
+        <v>5.64</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5.22</v>
+      </c>
+      <c r="E9" s="15">
+        <v>5.55</v>
+      </c>
+      <c r="F9" s="16">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D10" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E10" s="15">
+        <v>4.03</v>
+      </c>
+      <c r="F10" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="G10" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6984,338 +8691,339 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC53C44D-0C19-44F8-9DCC-05B0C8F0A203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958F49C1-DED9-4119-A829-40E79FF17E43}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="5" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="15">
+        <v>14.22</v>
+      </c>
+      <c r="D2" s="15">
+        <v>15.08</v>
+      </c>
+      <c r="E2" s="15">
+        <v>13.38</v>
+      </c>
+      <c r="F2" s="15">
+        <v>14.2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15">
+        <v>10.26</v>
+      </c>
+      <c r="D3" s="15">
+        <v>10.18</v>
+      </c>
+      <c r="E3" s="15">
+        <v>11.48</v>
+      </c>
+      <c r="F3" s="15">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15">
+        <v>7.22</v>
+      </c>
+      <c r="D4" s="15">
+        <v>7.94</v>
+      </c>
+      <c r="E4" s="15">
+        <v>7.88</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5.82</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6.9</v>
+      </c>
+      <c r="D5" s="15">
+        <v>7.04</v>
+      </c>
+      <c r="E5" s="15">
+        <v>7.41</v>
+      </c>
+      <c r="F5" s="15">
+        <v>6.2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15">
+        <v>6.29</v>
+      </c>
+      <c r="D6" s="15">
+        <v>7.35</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5.77</v>
+      </c>
+      <c r="F6" s="15">
+        <v>5.89</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15">
+        <v>6.07</v>
+      </c>
+      <c r="D7" s="15">
+        <v>5.85</v>
+      </c>
+      <c r="E7" s="15">
+        <v>6.23</v>
+      </c>
+      <c r="F7" s="15">
+        <v>6.15</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15">
+        <v>5.85</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5.38</v>
+      </c>
+      <c r="E8" s="15">
+        <v>6.4</v>
+      </c>
+      <c r="F8" s="15">
+        <v>5.71</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="15">
+        <v>5.19</v>
+      </c>
+      <c r="D9" s="15">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E9" s="15">
+        <v>5.96</v>
+      </c>
+      <c r="F9" s="15">
+        <v>4.79</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C10" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="D10" s="15">
+        <v>1.69</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1.55</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1.56</v>
+      </c>
+      <c r="G10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="15">
+        <v>7.05</v>
+      </c>
+      <c r="D11" s="15">
+        <v>7.04</v>
+      </c>
+      <c r="E11" s="15">
+        <v>7.29</v>
+      </c>
+      <c r="F11" s="15">
+        <v>6.82</v>
+      </c>
+      <c r="G11" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7326,338 +9034,339 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2672733F-5382-4163-A5BE-5D9DFF10A097}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96F4E88-6545-49A2-B3F6-EA113353DEBF}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2.33</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1.33</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="15">
+        <v>5.67</v>
+      </c>
+      <c r="D11" s="16">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16">
+        <v>5</v>
+      </c>
+      <c r="F11" s="16">
+        <v>7</v>
+      </c>
+      <c r="G11" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7668,338 +9377,339 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA186BA-AF6C-43B1-A888-AB21EB01C915}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF1B86-79F0-43FC-941E-92528B6BE10E}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>48</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.33</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>2</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1.33</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="16">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.33</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="15">
+        <v>5.33</v>
+      </c>
+      <c r="D8" s="16">
+        <v>3</v>
+      </c>
+      <c r="E8" s="16">
+        <v>4</v>
+      </c>
+      <c r="F8" s="16">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>48</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition descending="1" ref="G1:G13"/>
+      <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8007,4 +9717,18 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BD5A5D-0C76-4A4A-BF73-385C9691D143}">
+  <sheetPr codeName="工作表9"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/1. 各院彙整資料/文學院.xlsx
+++ b/test/1. 各院彙整資料/文學院.xlsx
@@ -8,29 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB131FE1-D0A6-47FF-B2FE-9E5EB9D012E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1DFC47-597B-4578-BABB-9FF2F8AA7ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FA93FE0B-5FF8-4EBE-8DE9-D34EAA168099}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="6" activeTab="8" xr2:uid="{FA93FE0B-5FF8-4EBE-8DE9-D34EAA168099}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
-    <sheet name="工作表1" sheetId="100" r:id="rId9"/>
+    <sheet name="工作表1" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="102" r:id="rId4"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="103" r:id="rId5"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="104" r:id="rId6"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="105" r:id="rId7"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="106" r:id="rId8"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="107" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -213,42 +213,34 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為11.62%，低於院三年均值者計有2個系，為歷史系10.8%、哲學系11.06%。</t>
+  </si>
+  <si>
+    <t>院三年均值為30.85%，高於院三年均值者計有3個系，為華文博66.67%、台史所50%、中文系37.04%。</t>
   </si>
   <si>
     <t>院三年均值為42,111，高於院三年均值者計有1個系，為中文系46,027。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為4.14，低於院三年均值者計有4個系，為圖檔所2.5、哲學系3.96、華文碩4.03、宗教所4.08。</t>
   </si>
   <si>
     <t>院三年均值為7.05，高於院三年均值者計有3個系，為圖檔所14.22、中文系10.26、台文所7.22。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為11.62%，低於院三年均值者計有2個系，為歷史系10.8%、哲學系11.06%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為30.85%，高於院三年均值者計有3個系，為華文博66.67%、台史所50%、中文系37.04%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為4.14，低於院三年均值者計有4個系，為圖檔所2.5、哲學系3.96、華文碩4.03、宗教所4.08。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為5.67，包含歷史系2.33、圖檔所2、中文系1.33。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院加總三年均值為5.33，包含中文系1.33、歷史系1.33、台史所1、哲學系0.67、台文所0.67、圖檔所0.33。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -257,10 +249,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="179" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -480,9 +472,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,6 +482,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,7 +611,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1800-47B7-8689-B0CB07DE0EE6}"/>
+              <c16:uniqueId val="{00000000-69A6-48A2-BDC4-B999C9C414B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -695,7 +687,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1800-47B7-8689-B0CB07DE0EE6}"/>
+              <c16:uniqueId val="{00000001-69A6-48A2-BDC4-B999C9C414B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -771,7 +763,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1800-47B7-8689-B0CB07DE0EE6}"/>
+              <c16:uniqueId val="{00000002-69A6-48A2-BDC4-B999C9C414B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -829,7 +821,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="3"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -884,9 +876,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1800-47B7-8689-B0CB07DE0EE6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1004,7 +993,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1800-47B7-8689-B0CB07DE0EE6}"/>
+              <c16:uniqueId val="{00000004-69A6-48A2-BDC4-B999C9C414B2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1356,7 +1345,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A775-4466-A1C8-3475A7E1FD73}"/>
+              <c16:uniqueId val="{00000000-2CBD-4305-A266-82936619574D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1462,7 +1451,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A775-4466-A1C8-3475A7E1FD73}"/>
+              <c16:uniqueId val="{00000001-2CBD-4305-A266-82936619574D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1568,7 +1557,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A775-4466-A1C8-3475A7E1FD73}"/>
+              <c16:uniqueId val="{00000002-2CBD-4305-A266-82936619574D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1626,7 +1615,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="8"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1681,9 +1670,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A775-4466-A1C8-3475A7E1FD73}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1831,7 +1817,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A775-4466-A1C8-3475A7E1FD73}"/>
+              <c16:uniqueId val="{00000004-2CBD-4305-A266-82936619574D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2201,7 +2187,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9689-4A65-8E6D-DBD142F46F57}"/>
+              <c16:uniqueId val="{00000000-A196-42D4-A32F-7CFF70205B7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2325,7 +2311,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9689-4A65-8E6D-DBD142F46F57}"/>
+              <c16:uniqueId val="{00000001-A196-42D4-A32F-7CFF70205B7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2449,7 +2435,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9689-4A65-8E6D-DBD142F46F57}"/>
+              <c16:uniqueId val="{00000002-A196-42D4-A32F-7CFF70205B7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2507,7 +2493,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="11"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2562,9 +2548,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9689-4A65-8E6D-DBD142F46F57}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2730,7 +2713,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9689-4A65-8E6D-DBD142F46F57}"/>
+              <c16:uniqueId val="{00000004-A196-42D4-A32F-7CFF70205B7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3082,7 +3065,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DB6-4B1C-9805-67684C0946CE}"/>
+              <c16:uniqueId val="{00000000-7B44-4006-8F28-05A4F65F9557}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3188,7 +3171,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6DB6-4B1C-9805-67684C0946CE}"/>
+              <c16:uniqueId val="{00000001-7B44-4006-8F28-05A4F65F9557}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3294,7 +3277,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6DB6-4B1C-9805-67684C0946CE}"/>
+              <c16:uniqueId val="{00000002-7B44-4006-8F28-05A4F65F9557}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3352,7 +3335,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="8"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3407,9 +3390,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-6DB6-4B1C-9805-67684C0946CE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3557,7 +3537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6DB6-4B1C-9805-67684C0946CE}"/>
+              <c16:uniqueId val="{00000004-7B44-4006-8F28-05A4F65F9557}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3915,7 +3895,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9E61-45CD-8C19-7BD61A71E4FE}"/>
+              <c16:uniqueId val="{00000000-F096-47CF-8B50-0FA1F35983C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4027,7 +4007,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9E61-45CD-8C19-7BD61A71E4FE}"/>
+              <c16:uniqueId val="{00000001-F096-47CF-8B50-0FA1F35983C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4139,7 +4119,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9E61-45CD-8C19-7BD61A71E4FE}"/>
+              <c16:uniqueId val="{00000002-F096-47CF-8B50-0FA1F35983C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4197,7 +4177,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="9"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -4252,9 +4232,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9E61-45CD-8C19-7BD61A71E4FE}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4408,7 +4385,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9E61-45CD-8C19-7BD61A71E4FE}"/>
+              <c16:uniqueId val="{00000004-F096-47CF-8B50-0FA1F35983C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4766,7 +4743,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2957-4297-B73A-84F96F7ED2BD}"/>
+              <c16:uniqueId val="{00000000-7C34-4B73-A31F-72F379F2220F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4878,7 +4855,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2957-4297-B73A-84F96F7ED2BD}"/>
+              <c16:uniqueId val="{00000001-7C34-4B73-A31F-72F379F2220F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4990,7 +4967,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2957-4297-B73A-84F96F7ED2BD}"/>
+              <c16:uniqueId val="{00000002-7C34-4B73-A31F-72F379F2220F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5048,7 +5025,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="9"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5103,9 +5080,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2957-4297-B73A-84F96F7ED2BD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5259,7 +5233,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2957-4297-B73A-84F96F7ED2BD}"/>
+              <c16:uniqueId val="{00000004-7C34-4B73-A31F-72F379F2220F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5599,7 +5573,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B55-4083-84ED-8A46EABBE7CF}"/>
+              <c16:uniqueId val="{00000000-9341-47BF-AA87-8B61198468A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5693,7 +5667,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1B55-4083-84ED-8A46EABBE7CF}"/>
+              <c16:uniqueId val="{00000001-9341-47BF-AA87-8B61198468A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5787,7 +5761,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1B55-4083-84ED-8A46EABBE7CF}"/>
+              <c16:uniqueId val="{00000002-9341-47BF-AA87-8B61198468A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5845,7 +5819,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="6"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -5900,9 +5874,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1B55-4083-84ED-8A46EABBE7CF}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -6038,7 +6009,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1B55-4083-84ED-8A46EABBE7CF}"/>
+              <c16:uniqueId val="{00000004-9341-47BF-AA87-8B61198468A5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6267,7 +6238,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784CEDC9-1535-451F-AA7E-57946670344F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623370D6-2F16-4F18-858C-9D1D28EC5D93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6300,7 +6271,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D10412-EC7C-42E4-B69B-6160E1C17CF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0D0468-8B6E-4ACD-85B3-3A96697EE49E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6333,7 +6304,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FACA9C1-AC74-4BE0-8877-D308F346F241}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0285C4-4B33-4F8C-8184-0DBE2137CFA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6366,7 +6337,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{400E1656-F57B-4F15-B471-A8F526CF433D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DD8C20-CF0B-4137-8961-BA4DD39A9D41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6399,7 +6370,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BA5E94-AC74-47AA-A34D-008A3818FEBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8919509-7260-4731-BCC3-BAFC0B03E27D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6432,7 +6403,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E831C84-D588-4538-B6ED-BF3238518961}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E6ACCA-E959-4E98-A8EF-246E1B5F5DE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6465,7 +6436,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9D25C34-6D0D-44EF-9393-61E39A04B550}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7715C305-769E-4184-887F-6BF21E540B15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6808,7 +6779,7 @@
   <sheetPr codeName="工作表8"/>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -6903,37 +6874,37 @@
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="16">
         <v>1</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="16">
         <v>2</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="12" t="s">
+      <c r="F3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6944,37 +6915,37 @@
       <c r="B4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>3</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="16">
         <v>4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="16">
         <v>8</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="16">
         <v>4</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="16">
         <v>7</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="16">
         <v>2</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="16">
         <v>4</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="J4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="16">
         <v>1</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="L4" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6985,37 +6956,37 @@
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="16">
         <v>4</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>4</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="16">
         <v>4</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="16">
         <v>4</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="16">
         <v>4</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="16">
         <v>4</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="16">
         <v>4</v>
       </c>
     </row>
@@ -7026,37 +6997,37 @@
       <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>8</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="16">
         <v>5</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="16">
         <v>1</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="16">
         <v>4</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="16">
         <v>6</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="16">
         <v>7</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="16">
         <v>3</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="12" t="s">
+      <c r="K6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7065,39 +7036,39 @@
         <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="12">
+        <v>50</v>
+      </c>
+      <c r="C7" s="16">
         <v>3.75</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>3.75</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="16">
         <v>3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="16">
         <v>5</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="16">
         <v>4</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="16">
         <v>5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="16">
         <v>3.5</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="16">
         <v>2.5</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="16">
         <v>4</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="16">
         <v>4</v>
       </c>
     </row>
@@ -7108,37 +7079,37 @@
       <c r="B8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>2</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="16">
         <v>6</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>4</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="16">
         <v>8</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="16">
         <v>7</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="16">
         <v>3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="16">
         <v>5</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="16">
         <v>9</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="L8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7149,37 +7120,37 @@
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="16">
         <v>3</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="16">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="16">
         <v>4</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="16">
         <v>2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="16">
         <v>4</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="16">
         <v>4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="16">
         <v>4</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="16">
         <v>4</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="16">
         <v>4</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="12" t="s">
+      <c r="L9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7188,39 +7159,39 @@
         <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="12">
+        <v>51</v>
+      </c>
+      <c r="C10" s="16">
         <v>3.39</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="16">
         <v>3.14</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>3.82</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>2.5</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <v>5.33</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="16">
         <v>4.5</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="16">
         <v>4.5</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="16">
         <v>3.9</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="16">
         <v>4</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="16">
         <v>4</v>
       </c>
     </row>
@@ -7231,37 +7202,37 @@
       <c r="B11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="16">
         <v>4</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="16">
         <v>6</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="G11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="16">
         <v>3</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="16">
         <v>4</v>
       </c>
-      <c r="J11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="J11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7272,57 +7243,71 @@
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>3.13</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>2.9</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>3.84</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>2.94</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="16">
         <v>5.33</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="16">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="16">
         <v>4.4400000000000004</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="16">
         <v>3.9</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="16">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="16">
         <v>4</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="16">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{C12E7B15-2216-448A-80FB-CB1F28556432}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{8EE3EB4B-3B46-4555-88A3-D5AB2F454B72}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{0395A2F2-2594-4A33-A37E-5E585D38D9E4}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{1B57A082-7661-4E2B-9134-0400D89D6C3A}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{A78E6F02-60B7-4E8A-B74B-0A7E0871B862}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{ED05F740-EFF6-4CE5-91F5-D0C84910A18E}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{BF1A505C-FEB5-421C-B856-FA9107F98B21}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{F7A8760D-D394-4A13-BFFB-ED22F78DE32D}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{948191AA-C97A-476F-B01A-EE2B9A0EC630}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{C56F5676-64B7-46B5-93E6-C484B8451B9F}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{17E5CA8C-C490-421E-9A43-1DAA33378639}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{AC8704A8-A564-47EB-A9CE-0ED66638A332}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{D209B3CF-7993-413B-909B-62ABEF416C4A}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{E45FA134-FCE5-42BB-8695-D7238376A681}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC0D0FA-2E60-43EF-8FCB-31666EF8005D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BD5A5D-0C76-4A4A-BF73-385C9691D143}">
+  <sheetPr codeName="工作表9"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B5AE2B-DC78-4613-892E-5D006E8D5633}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -7363,7 +7348,7 @@
         <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7373,16 +7358,16 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.108</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.1159</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.1429</v>
       </c>
       <c r="G2" s="9">
@@ -7396,16 +7381,16 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>0.1106</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0.10340000000000001</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0.1333</v>
       </c>
       <c r="G3" s="9">
@@ -7419,16 +7404,16 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0.1246</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0.1207</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.1489</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="10">
         <v>0.11020000000000001</v>
       </c>
       <c r="G4" s="9">
@@ -7442,16 +7427,16 @@
       <c r="B5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>0.1162</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.1018</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.12670000000000001</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>0.1235</v>
       </c>
       <c r="G5" s="9">
@@ -7465,16 +7450,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -7488,16 +7473,16 @@
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -7511,16 +7496,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="C8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -7534,16 +7519,16 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -7557,16 +7542,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -7580,16 +7565,16 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -7603,16 +7588,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -7626,16 +7611,16 @@
       <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -7653,7 +7638,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7663,8 +7648,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1FB17C-85E1-491C-9B4E-86E285DA51EF}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F82A76-7B87-4921-907A-DC602C401FC2}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -7676,7 +7661,9 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7705,7 +7692,7 @@
         <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7715,16 +7702,16 @@
       <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="12">
         <v>0.5</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="12">
         <v>0.5</v>
       </c>
       <c r="G2" s="9">
@@ -7738,16 +7725,16 @@
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>0.5</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>0.5</v>
       </c>
       <c r="G3" s="9">
@@ -7761,16 +7748,16 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>0.37040000000000001</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="10">
         <v>0.45450000000000002</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="10">
         <v>0.16669999999999999</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>0.4</v>
       </c>
       <c r="G4" s="9">
@@ -7784,16 +7771,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>0.2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>0.33329999999999999</v>
       </c>
       <c r="G5" s="9">
@@ -7807,16 +7794,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>0.2</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="10">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G6" s="9">
@@ -7830,16 +7817,16 @@
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>0.2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>0.5</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" s="9">
@@ -7853,16 +7840,16 @@
       <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>0.1875</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>0</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>0.2</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>0.4</v>
       </c>
       <c r="G8" s="9">
@@ -7876,16 +7863,16 @@
       <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>0.1429</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0.16669999999999999</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>0.5</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
       <c r="G9" s="9">
@@ -7899,16 +7886,16 @@
       <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>0.3085</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>0.34210000000000002</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>0.24</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>0.3226</v>
       </c>
       <c r="G10" s="9">
@@ -7922,16 +7909,16 @@
       <c r="B11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -7945,16 +7932,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -7968,362 +7955,20 @@
       <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val="—"/>
-      </customFilters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
-      <sortCondition ref="G1:G13"/>
-    </sortState>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
-    <sortCondition ref="G2"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7661A60-4F85-413F-8F76-1D90C3F389B7}">
-  <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="6"/>
-    <col min="9" max="9" width="14" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11">
-        <v>46026.86</v>
-      </c>
-      <c r="D2" s="11">
-        <v>55992.11</v>
-      </c>
-      <c r="E2" s="11">
-        <v>37774.22</v>
-      </c>
-      <c r="F2" s="11">
-        <v>40890</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11">
-        <v>39447.24</v>
-      </c>
-      <c r="D3" s="11">
-        <v>33678.47</v>
-      </c>
-      <c r="E3" s="11">
-        <v>44679.07</v>
-      </c>
-      <c r="F3" s="11">
-        <v>41162</v>
-      </c>
-      <c r="G3" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11">
-        <v>33142.01</v>
-      </c>
-      <c r="D4" s="11">
-        <v>25916.68</v>
-      </c>
-      <c r="E4" s="11">
-        <v>34653.410000000003</v>
-      </c>
-      <c r="F4" s="11">
-        <v>39706</v>
-      </c>
-      <c r="G4" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11">
-        <v>42110.62</v>
-      </c>
-      <c r="D13" s="11">
-        <v>46139.62</v>
-      </c>
-      <c r="E13" s="11">
-        <v>38335.919999999998</v>
-      </c>
-      <c r="F13" s="11">
-        <v>40703.440000000002</v>
-      </c>
-      <c r="G13" s="9">
-        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -8348,20 +7993,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB7A4B9-E4F4-48D2-B8FC-204CBFA7F7EB}">
-  <sheetPr codeName="工作表4" filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05017C8B-FA00-46A1-A944-E640E9595C0E}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="5" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8390,27 +8034,27 @@
         <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="D2" s="15">
-        <v>2.46</v>
-      </c>
-      <c r="E2" s="15">
-        <v>2.52</v>
-      </c>
-      <c r="F2" s="15">
-        <v>2.5</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>46026.86</v>
+      </c>
+      <c r="D2" s="13">
+        <v>55992.11</v>
+      </c>
+      <c r="E2" s="13">
+        <v>37774.22</v>
+      </c>
+      <c r="F2" s="13">
+        <v>40890</v>
       </c>
       <c r="G2" s="9">
         <v>1</v>
@@ -8418,22 +8062,22 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="15">
-        <v>3.96</v>
-      </c>
-      <c r="D3" s="16">
         <v>5</v>
       </c>
-      <c r="E3" s="15">
-        <v>3.71</v>
-      </c>
-      <c r="F3" s="15">
-        <v>3.4</v>
+      <c r="C3" s="13">
+        <v>39447.24</v>
+      </c>
+      <c r="D3" s="13">
+        <v>33678.47</v>
+      </c>
+      <c r="E3" s="13">
+        <v>44679.07</v>
+      </c>
+      <c r="F3" s="13">
+        <v>41162</v>
       </c>
       <c r="G3" s="9">
         <v>2</v>
@@ -8441,22 +8085,22 @@
     </row>
     <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="15">
-        <v>4.03</v>
-      </c>
-      <c r="D4" s="15">
-        <v>4.42</v>
-      </c>
-      <c r="E4" s="15">
-        <v>3.93</v>
-      </c>
-      <c r="F4" s="15">
-        <v>3.5</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="13">
+        <v>33142.01</v>
+      </c>
+      <c r="D4" s="13">
+        <v>25916.68</v>
+      </c>
+      <c r="E4" s="13">
+        <v>34653.410000000003</v>
+      </c>
+      <c r="F4" s="13">
+        <v>39706</v>
       </c>
       <c r="G4" s="9">
         <v>3</v>
@@ -8464,22 +8108,22 @@
     </row>
     <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="15">
-        <v>4.08</v>
-      </c>
-      <c r="D5" s="15">
-        <v>4.2</v>
-      </c>
-      <c r="E5" s="15">
-        <v>4.25</v>
-      </c>
-      <c r="F5" s="15">
-        <v>3.8</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G5" s="9">
         <v>4</v>
@@ -8487,25 +8131,25 @@
     </row>
     <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="9">
         <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="15">
-        <v>4.59</v>
-      </c>
-      <c r="D6" s="15">
-        <v>4.83</v>
-      </c>
-      <c r="E6" s="15">
-        <v>4.29</v>
-      </c>
-      <c r="F6" s="15">
-        <v>4.7</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -8515,20 +8159,20 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
-        <v>4.7</v>
-      </c>
-      <c r="D7" s="16">
-        <v>5</v>
-      </c>
-      <c r="E7" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F7" s="15">
-        <v>4.8</v>
+      <c r="C7" s="13">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G7" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -8538,135 +8182,135 @@
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="D8" s="15">
-        <v>4.57</v>
-      </c>
-      <c r="E8" s="16">
-        <v>5</v>
-      </c>
-      <c r="F8" s="16">
-        <v>7</v>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G8" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15">
-        <v>5.64</v>
-      </c>
-      <c r="D9" s="15">
-        <v>5.22</v>
-      </c>
-      <c r="E9" s="15">
-        <v>5.55</v>
-      </c>
-      <c r="F9" s="16">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="G9" s="9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="13">
         <v>0</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="15">
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="D10" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E10" s="15">
-        <v>4.03</v>
-      </c>
-      <c r="F10" s="15">
-        <v>4.3</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="C13" s="13">
+        <v>42110.62</v>
+      </c>
+      <c r="D13" s="13">
+        <v>46139.62</v>
+      </c>
+      <c r="E13" s="13">
+        <v>38335.919999999998</v>
+      </c>
+      <c r="F13" s="13">
+        <v>40703.440000000002</v>
+      </c>
+      <c r="G13" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -8680,7 +8324,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G10">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8691,7 +8335,349 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958F49C1-DED9-4119-A829-40E79FF17E43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D06B6F-EFFE-4358-920E-C45158357BB6}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
+    <col min="9" max="9" width="14" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="D2" s="14">
+        <v>2.46</v>
+      </c>
+      <c r="E2" s="14">
+        <v>2.52</v>
+      </c>
+      <c r="F2" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>3.96</v>
+      </c>
+      <c r="D3" s="15">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3.71</v>
+      </c>
+      <c r="F3" s="14">
+        <v>3.4</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="14">
+        <v>4.03</v>
+      </c>
+      <c r="D4" s="14">
+        <v>4.42</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3.93</v>
+      </c>
+      <c r="F4" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14">
+        <v>4.08</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>4.25</v>
+      </c>
+      <c r="F5" s="14">
+        <v>3.8</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4.59</v>
+      </c>
+      <c r="D6" s="14">
+        <v>4.83</v>
+      </c>
+      <c r="E6" s="14">
+        <v>4.29</v>
+      </c>
+      <c r="F6" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="14">
+        <v>4.7</v>
+      </c>
+      <c r="D7" s="15">
+        <v>5</v>
+      </c>
+      <c r="E7" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F7" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="G7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="14">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4.57</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="15">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14">
+        <v>5.64</v>
+      </c>
+      <c r="D9" s="14">
+        <v>5.22</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5.55</v>
+      </c>
+      <c r="F9" s="15">
+        <v>6</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="14">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="D10" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4.03</v>
+      </c>
+      <c r="F10" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="G10" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="—"/>
+      </customFilters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+      <sortCondition ref="G1:G13"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
+    <sortCondition ref="G2"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4DB3B7-9583-4E05-BBD3-6C9F21250603}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -8703,8 +8689,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="5" width="5.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -8733,7 +8719,7 @@
         <v>44</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -8743,16 +8729,16 @@
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>14.22</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>15.08</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>13.38</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>14.2</v>
       </c>
       <c r="G2" s="9">
@@ -8766,16 +8752,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>10.26</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>10.18</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>11.48</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>9.5500000000000007</v>
       </c>
       <c r="G3" s="9">
@@ -8789,16 +8775,16 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>7.22</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>7.94</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>7.88</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>5.82</v>
       </c>
       <c r="G4" s="9">
@@ -8812,16 +8798,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>6.9</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>7.04</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>7.41</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>6.2</v>
       </c>
       <c r="G5" s="9">
@@ -8835,16 +8821,16 @@
       <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>6.29</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>7.35</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>5.77</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>5.89</v>
       </c>
       <c r="G6" s="9">
@@ -8858,16 +8844,16 @@
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>6.07</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>5.85</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>6.23</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>6.15</v>
       </c>
       <c r="G7" s="9">
@@ -8881,16 +8867,16 @@
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>5.85</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>5.38</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>6.4</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>5.71</v>
       </c>
       <c r="G8" s="9">
@@ -8904,16 +8890,16 @@
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>5.19</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>4.8899999999999997</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>5.96</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>4.79</v>
       </c>
       <c r="G9" s="9">
@@ -8927,16 +8913,16 @@
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>1.6</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>1.69</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>1.55</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>1.56</v>
       </c>
       <c r="G10" s="9">
@@ -8950,16 +8936,16 @@
       <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>7.05</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>7.04</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>7.29</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>6.82</v>
       </c>
       <c r="G11" s="9">
@@ -8973,16 +8959,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -8996,16 +8982,16 @@
       <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -9023,7 +9009,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9033,21 +9019,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96F4E88-6545-49A2-B3F6-EA113353DEBF}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1287F6-DA86-4C7E-9B45-6226B4C942C4}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -9086,16 +9071,16 @@
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>2.33</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>2</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>3</v>
       </c>
       <c r="G2" s="9">
@@ -9109,16 +9094,16 @@
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>2</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>2</v>
       </c>
       <c r="G3" s="9">
@@ -9132,16 +9117,16 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>1.33</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>2</v>
       </c>
       <c r="G4" s="9">
@@ -9155,16 +9140,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
       <c r="G5" s="9">
@@ -9178,16 +9163,16 @@
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0</v>
       </c>
       <c r="G6" s="9">
@@ -9201,16 +9186,16 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>0</v>
       </c>
       <c r="G7" s="9">
@@ -9224,16 +9209,16 @@
       <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>0</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>0</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>0</v>
       </c>
       <c r="G8" s="9">
@@ -9247,16 +9232,16 @@
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>0</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9">
@@ -9270,16 +9255,16 @@
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>0</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>0</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="9">
@@ -9293,16 +9278,16 @@
       <c r="B11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>5.67</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>5</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>5</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>7</v>
       </c>
       <c r="G11" s="9">
@@ -9316,16 +9301,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -9339,16 +9324,16 @@
       <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -9366,7 +9351,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9376,21 +9361,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51EF1B86-79F0-43FC-941E-92528B6BE10E}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F73501-4026-4178-8541-B75DD835C42D}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -9429,16 +9413,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>1.33</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>2</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>2</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
       <c r="G2" s="9">
@@ -9452,16 +9436,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>1.33</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>3</v>
       </c>
       <c r="G3" s="9">
@@ -9475,16 +9459,16 @@
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>1</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>1</v>
       </c>
       <c r="G4" s="9">
@@ -9498,16 +9482,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>0.67</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>2</v>
       </c>
       <c r="G5" s="9">
@@ -9521,16 +9505,16 @@
       <c r="B6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>0.67</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>0</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>2</v>
       </c>
       <c r="G6" s="9">
@@ -9544,16 +9528,16 @@
       <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>0.33</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>1</v>
       </c>
       <c r="G7" s="9">
@@ -9567,16 +9551,16 @@
       <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>5.33</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>3</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>4</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>9</v>
       </c>
       <c r="G8" s="9">
@@ -9590,16 +9574,16 @@
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -9613,16 +9597,16 @@
       <c r="B10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="C10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -9636,16 +9620,16 @@
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -9659,16 +9643,16 @@
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="C12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -9682,16 +9666,16 @@
       <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="C13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -9709,7 +9693,7 @@
       <sortCondition ref="G1:G13"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G13">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9717,18 +9701,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BD5A5D-0C76-4A4A-BF73-385C9691D143}">
-  <sheetPr codeName="工作表9"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/test/1. 各院彙整資料/文學院.xlsx
+++ b/test/1. 各院彙整資料/文學院.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1DFC47-597B-4578-BABB-9FF2F8AA7ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBDF78A-C5E2-4656-828F-0B67A6419D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="6" activeTab="8" xr2:uid="{FA93FE0B-5FF8-4EBE-8DE9-D34EAA168099}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{FA93FE0B-5FF8-4EBE-8DE9-D34EAA168099}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
     <sheet name="工作表1" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="102" r:id="rId4"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="103" r:id="rId5"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="104" r:id="rId6"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="105" r:id="rId7"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="106" r:id="rId8"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="107" r:id="rId9"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="116" r:id="rId4"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="117" r:id="rId5"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="118" r:id="rId6"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="119" r:id="rId7"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="120" r:id="rId8"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="121" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$13</definedName>
@@ -611,7 +611,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-69A6-48A2-BDC4-B999C9C414B2}"/>
+              <c16:uniqueId val="{00000000-C6F8-440D-A85A-7C07634CE5CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -687,7 +687,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-69A6-48A2-BDC4-B999C9C414B2}"/>
+              <c16:uniqueId val="{00000001-C6F8-440D-A85A-7C07634CE5CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -763,7 +763,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-69A6-48A2-BDC4-B999C9C414B2}"/>
+              <c16:uniqueId val="{00000002-C6F8-440D-A85A-7C07634CE5CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -993,7 +993,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-69A6-48A2-BDC4-B999C9C414B2}"/>
+              <c16:uniqueId val="{00000004-C6F8-440D-A85A-7C07634CE5CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1345,7 +1345,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2CBD-4305-A266-82936619574D}"/>
+              <c16:uniqueId val="{00000000-BD6A-4220-B9C2-DCDB51E6549B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1451,7 +1451,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2CBD-4305-A266-82936619574D}"/>
+              <c16:uniqueId val="{00000001-BD6A-4220-B9C2-DCDB51E6549B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1557,7 +1557,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2CBD-4305-A266-82936619574D}"/>
+              <c16:uniqueId val="{00000002-BD6A-4220-B9C2-DCDB51E6549B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1817,7 +1817,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2CBD-4305-A266-82936619574D}"/>
+              <c16:uniqueId val="{00000004-BD6A-4220-B9C2-DCDB51E6549B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2187,7 +2187,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A196-42D4-A32F-7CFF70205B7C}"/>
+              <c16:uniqueId val="{00000000-C91E-4E2B-A25E-B61884694021}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2311,7 +2311,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A196-42D4-A32F-7CFF70205B7C}"/>
+              <c16:uniqueId val="{00000001-C91E-4E2B-A25E-B61884694021}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2435,7 +2435,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A196-42D4-A32F-7CFF70205B7C}"/>
+              <c16:uniqueId val="{00000002-C91E-4E2B-A25E-B61884694021}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2713,7 +2713,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A196-42D4-A32F-7CFF70205B7C}"/>
+              <c16:uniqueId val="{00000004-C91E-4E2B-A25E-B61884694021}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3065,7 +3065,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7B44-4006-8F28-05A4F65F9557}"/>
+              <c16:uniqueId val="{00000000-2CC6-414F-A650-6C32A7BC94A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3171,7 +3171,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7B44-4006-8F28-05A4F65F9557}"/>
+              <c16:uniqueId val="{00000001-2CC6-414F-A650-6C32A7BC94A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3277,7 +3277,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7B44-4006-8F28-05A4F65F9557}"/>
+              <c16:uniqueId val="{00000002-2CC6-414F-A650-6C32A7BC94A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3537,7 +3537,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7B44-4006-8F28-05A4F65F9557}"/>
+              <c16:uniqueId val="{00000004-2CC6-414F-A650-6C32A7BC94A0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3895,7 +3895,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F096-47CF-8B50-0FA1F35983C1}"/>
+              <c16:uniqueId val="{00000000-EE09-43E5-B220-8C3B903DFF9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4007,7 +4007,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F096-47CF-8B50-0FA1F35983C1}"/>
+              <c16:uniqueId val="{00000001-EE09-43E5-B220-8C3B903DFF9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4119,7 +4119,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F096-47CF-8B50-0FA1F35983C1}"/>
+              <c16:uniqueId val="{00000002-EE09-43E5-B220-8C3B903DFF9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4385,7 +4385,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F096-47CF-8B50-0FA1F35983C1}"/>
+              <c16:uniqueId val="{00000004-EE09-43E5-B220-8C3B903DFF9A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4743,7 +4743,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7C34-4B73-A31F-72F379F2220F}"/>
+              <c16:uniqueId val="{00000000-E6B9-4FDC-8AE0-B810F7180644}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4855,7 +4855,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7C34-4B73-A31F-72F379F2220F}"/>
+              <c16:uniqueId val="{00000001-E6B9-4FDC-8AE0-B810F7180644}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4967,7 +4967,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7C34-4B73-A31F-72F379F2220F}"/>
+              <c16:uniqueId val="{00000002-E6B9-4FDC-8AE0-B810F7180644}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5233,7 +5233,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7C34-4B73-A31F-72F379F2220F}"/>
+              <c16:uniqueId val="{00000004-E6B9-4FDC-8AE0-B810F7180644}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5573,7 +5573,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9341-47BF-AA87-8B61198468A5}"/>
+              <c16:uniqueId val="{00000000-DCE6-4E84-92C1-86FD8FC8FD27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5667,7 +5667,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9341-47BF-AA87-8B61198468A5}"/>
+              <c16:uniqueId val="{00000001-DCE6-4E84-92C1-86FD8FC8FD27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5761,7 +5761,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9341-47BF-AA87-8B61198468A5}"/>
+              <c16:uniqueId val="{00000002-DCE6-4E84-92C1-86FD8FC8FD27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6009,7 +6009,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9341-47BF-AA87-8B61198468A5}"/>
+              <c16:uniqueId val="{00000004-DCE6-4E84-92C1-86FD8FC8FD27}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6238,7 +6238,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623370D6-2F16-4F18-858C-9D1D28EC5D93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67BA35C7-69B0-4D89-A0E5-0CF3349E5BB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6271,7 +6271,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B0D0468-8B6E-4ACD-85B3-3A96697EE49E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67E0054-B23A-4888-9FA6-6DB2E92DE61C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6304,7 +6304,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0285C4-4B33-4F8C-8184-0DBE2137CFA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FA6FBC-BDB5-46C1-8004-EF0AC4CC90EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6337,7 +6337,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DD8C20-CF0B-4137-8961-BA4DD39A9D41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430D030C-F9EA-4B06-96FF-8A0FDDDA45F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6370,7 +6370,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8919509-7260-4731-BCC3-BAFC0B03E27D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F591B4-60A8-4B97-9452-8EBD94542C18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6403,7 +6403,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41E6ACCA-E959-4E98-A8EF-246E1B5F5DE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8E51D9-B1F8-490A-B280-17774AB71848}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6436,7 +6436,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7715C305-769E-4184-887F-6BF21E540B15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4F4156-AB96-47D0-8A62-5C04B0BA1377}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7280,13 +7280,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{F7A8760D-D394-4A13-BFFB-ED22F78DE32D}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{948191AA-C97A-476F-B01A-EE2B9A0EC630}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{C56F5676-64B7-46B5-93E6-C484B8451B9F}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{17E5CA8C-C490-421E-9A43-1DAA33378639}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{AC8704A8-A564-47EB-A9CE-0ED66638A332}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{D209B3CF-7993-413B-909B-62ABEF416C4A}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{E45FA134-FCE5-42BB-8695-D7238376A681}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{032CEEE1-E589-4680-AE8C-752521315872}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{8A073C8A-8569-4CF7-8840-D1E1A889F8E0}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{6A24BBA4-E9BF-4D99-B287-200787AB08B5}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{9F0B5C71-FEF1-49E3-9222-EE9A2F1ABFAB}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{E85722C4-7441-4CD4-934E-98F83B7C9D69}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{74CDF3BD-B316-4394-880F-980E3541E5C4}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{4FB4B493-CEE8-4CEF-9D88-12BC974C77BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7307,9 +7307,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B5AE2B-DC78-4613-892E-5D006E8D5633}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCA722C0-19C2-47C4-9399-FFC08232106E}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7325,7 +7325,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7347,11 +7347,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -7558,7 +7558,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -7649,9 +7649,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F82A76-7B87-4921-907A-DC602C401FC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29B71F6-E206-4CD8-A966-E92B433D4C75}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7669,7 +7669,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -7691,11 +7691,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -7993,9 +7993,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05017C8B-FA00-46A1-A944-E640E9595C0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39DFE55-027B-4BD8-B775-5957A22D614A}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8011,7 +8011,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -8033,11 +8033,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -8198,7 +8198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
       </c>
@@ -8335,9 +8335,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D06B6F-EFFE-4358-920E-C45158357BB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0066D31C-6F5B-4CC6-80E8-3DBBB299ADEA}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8353,7 +8353,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -8375,11 +8375,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -8677,9 +8677,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4DB3B7-9583-4E05-BBD3-6C9F21250603}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275199ED-86BC-4A9E-9C38-7CEB572A0F7D}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -8696,7 +8696,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -8718,11 +8718,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -8745,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -8791,7 +8791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -8814,7 +8814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -8929,7 +8929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -9020,9 +9020,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1287F6-DA86-4C7E-9B45-6226B4C942C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE0E7B4-F908-41E3-8F01-20F235A2192B}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -9038,7 +9038,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -9060,11 +9060,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>0</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
@@ -9362,9 +9362,9 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F73501-4026-4178-8541-B75DD835C42D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982A0526-A314-4995-890F-28B2842C4842}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -9380,7 +9380,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -9402,11 +9402,11 @@
       <c r="G1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -9521,7 +9521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
